--- a/gd/数值规划/成长数值相关/货币产出权重设计表.xlsx
+++ b/gd/数值规划/成长数值相关/货币产出权重设计表.xlsx
@@ -1,223 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="33135" yWindow="1335" windowWidth="22890" windowHeight="10575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="自用草稿 " sheetId="4" r:id="rId1"/>
-    <sheet name="材料消耗方法与产出对应" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="金币核算" sheetId="4" r:id="rId1"/>
+    <sheet name="装备强化各阶段产出收益" sheetId="2" r:id="rId2"/>
+    <sheet name="宠物,装备进阶进阶" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>消耗口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>各系统百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>产出口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备强化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>技能消耗总数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>升阶系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物升阶消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备升阶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物强化系数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物强化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备开孔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>总坑量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备强化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>技能消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物升阶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备升阶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物强化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>装备开孔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>剧情副本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当前等级副本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>副本系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>金钱获取量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>挑战本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>试炼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>购买金币</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当前需要的强化数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>成功率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化次数期望</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化消耗数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>强化需要总数(换算为最低强化石)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>品质</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分解产出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>卖出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分解金币返还</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解强化石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>白</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>绿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>紫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>橙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分解强化石(初级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际修正</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~15</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>23~30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~40</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本产出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险效率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出时间分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本产出期望</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶消耗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本次数系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合消耗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合产出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费及材料刷刷坑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石产出分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -227,12 +334,36 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,229 +766,251 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1191,6 +1344,14 @@
           <cell r="B17">
             <v>10</v>
           </cell>
+          <cell r="C17"/>
+          <cell r="D17"/>
+          <cell r="E17"/>
+          <cell r="F17"/>
+          <cell r="G17"/>
+          <cell r="H17"/>
+          <cell r="I17"/>
+          <cell r="J17"/>
         </row>
         <row r="18">
           <cell r="B18">
@@ -1457,6 +1618,14 @@
           <cell r="B27">
             <v>20</v>
           </cell>
+          <cell r="C27"/>
+          <cell r="D27"/>
+          <cell r="E27"/>
+          <cell r="F27"/>
+          <cell r="G27"/>
+          <cell r="H27"/>
+          <cell r="I27"/>
+          <cell r="J27"/>
         </row>
         <row r="28">
           <cell r="B28">
@@ -1723,6 +1892,12 @@
           <cell r="B37">
             <v>30</v>
           </cell>
+          <cell r="C37"/>
+          <cell r="D37"/>
+          <cell r="E37"/>
+          <cell r="F37"/>
+          <cell r="G37"/>
+          <cell r="H37"/>
           <cell r="I37">
             <v>3</v>
           </cell>
@@ -1734,6 +1909,12 @@
           <cell r="B38">
             <v>31</v>
           </cell>
+          <cell r="C38"/>
+          <cell r="D38"/>
+          <cell r="E38"/>
+          <cell r="F38"/>
+          <cell r="G38"/>
+          <cell r="H38"/>
           <cell r="I38">
             <v>3</v>
           </cell>
@@ -1745,6 +1926,12 @@
           <cell r="B39">
             <v>32</v>
           </cell>
+          <cell r="C39"/>
+          <cell r="D39"/>
+          <cell r="E39"/>
+          <cell r="F39"/>
+          <cell r="G39"/>
+          <cell r="H39"/>
           <cell r="I39">
             <v>3</v>
           </cell>
@@ -2289,7 +2476,6 @@
       <sheetName val="经验产出方式"/>
       <sheetName val="宠物计算经验表!"/>
       <sheetName val="宠物经验(副本关联表)"/>
-      <sheetName val="经验丹周期投放"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2297,13 +2483,13 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="18">
-          <cell r="A18">
-            <v>1</v>
-          </cell>
           <cell r="N18">
             <v>2</v>
           </cell>
           <cell r="T18">
+            <v>2</v>
+          </cell>
+          <cell r="U18">
             <v>2</v>
           </cell>
         </row>
@@ -2314,6 +2500,9 @@
           <cell r="T19">
             <v>5</v>
           </cell>
+          <cell r="U19">
+            <v>3</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="N20">
@@ -2322,6 +2511,9 @@
           <cell r="T20">
             <v>9</v>
           </cell>
+          <cell r="U20">
+            <v>6</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="N21">
@@ -2330,6 +2522,9 @@
           <cell r="T21">
             <v>14</v>
           </cell>
+          <cell r="U21">
+            <v>8</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="N22">
@@ -2338,6 +2533,9 @@
           <cell r="T22">
             <v>20</v>
           </cell>
+          <cell r="U22">
+            <v>12</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="N23">
@@ -2346,6 +2544,12 @@
           <cell r="T23">
             <v>26</v>
           </cell>
+          <cell r="U23">
+            <v>14</v>
+          </cell>
+          <cell r="V23">
+            <v>45</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="N24">
@@ -2354,6 +2558,9 @@
           <cell r="T24">
             <v>34</v>
           </cell>
+          <cell r="U24">
+            <v>20</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="N25">
@@ -2362,6 +2569,9 @@
           <cell r="T25">
             <v>43</v>
           </cell>
+          <cell r="U25">
+            <v>23</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="N26">
@@ -2370,6 +2580,9 @@
           <cell r="T26">
             <v>53</v>
           </cell>
+          <cell r="U26">
+            <v>30</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="N27">
@@ -2378,6 +2591,9 @@
           <cell r="T27">
             <v>64</v>
           </cell>
+          <cell r="U27">
+            <v>34</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="N28">
@@ -2386,6 +2602,9 @@
           <cell r="T28">
             <v>68</v>
           </cell>
+          <cell r="U28">
+            <v>34</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="N29">
@@ -2394,6 +2613,9 @@
           <cell r="T29">
             <v>74</v>
           </cell>
+          <cell r="U29">
+            <v>40</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="N30">
@@ -2402,6 +2624,9 @@
           <cell r="T30">
             <v>82</v>
           </cell>
+          <cell r="U30">
+            <v>42</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="N31">
@@ -2410,6 +2635,9 @@
           <cell r="T31">
             <v>90</v>
           </cell>
+          <cell r="U31">
+            <v>48</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="N32">
@@ -2418,6 +2646,12 @@
           <cell r="T32">
             <v>100</v>
           </cell>
+          <cell r="U32">
+            <v>52</v>
+          </cell>
+          <cell r="V32">
+            <v>323</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="N33">
@@ -2426,6 +2660,9 @@
           <cell r="T33">
             <v>110</v>
           </cell>
+          <cell r="U33">
+            <v>58</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="N34">
@@ -2434,6 +2671,9 @@
           <cell r="T34">
             <v>123</v>
           </cell>
+          <cell r="U34">
+            <v>65</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="N35">
@@ -2442,6 +2682,9 @@
           <cell r="T35">
             <v>137</v>
           </cell>
+          <cell r="U35">
+            <v>72</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="N36">
@@ -2450,6 +2693,9 @@
           <cell r="T36">
             <v>151</v>
           </cell>
+          <cell r="U36">
+            <v>79</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="N37">
@@ -2458,6 +2704,9 @@
           <cell r="T37">
             <v>167</v>
           </cell>
+          <cell r="U37">
+            <v>88</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="N38">
@@ -2466,6 +2715,9 @@
           <cell r="T38">
             <v>184</v>
           </cell>
+          <cell r="U38">
+            <v>96</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="N39">
@@ -2474,6 +2726,9 @@
           <cell r="T39">
             <v>203</v>
           </cell>
+          <cell r="U39">
+            <v>107</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="N40">
@@ -2482,6 +2737,12 @@
           <cell r="T40">
             <v>227</v>
           </cell>
+          <cell r="U40">
+            <v>120</v>
+          </cell>
+          <cell r="V40">
+            <v>685</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="N41">
@@ -2490,6 +2751,9 @@
           <cell r="T41">
             <v>260</v>
           </cell>
+          <cell r="U41">
+            <v>140</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="N42">
@@ -2498,6 +2762,9 @@
           <cell r="T42">
             <v>298</v>
           </cell>
+          <cell r="U42">
+            <v>158</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="N43">
@@ -2506,6 +2773,9 @@
           <cell r="T43">
             <v>346</v>
           </cell>
+          <cell r="U43">
+            <v>188</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="N44">
@@ -2514,6 +2784,9 @@
           <cell r="T44">
             <v>410</v>
           </cell>
+          <cell r="U44">
+            <v>222</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="N45">
@@ -2522,6 +2795,9 @@
           <cell r="T45">
             <v>492</v>
           </cell>
+          <cell r="U45">
+            <v>270</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="N46">
@@ -2530,6 +2806,9 @@
           <cell r="T46">
             <v>593</v>
           </cell>
+          <cell r="U46">
+            <v>323</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="N47">
@@ -2538,6 +2817,12 @@
           <cell r="T47">
             <v>743</v>
           </cell>
+          <cell r="U47">
+            <v>420</v>
+          </cell>
+          <cell r="V47">
+            <v>1721</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="N48">
@@ -2546,6 +2831,9 @@
           <cell r="T48">
             <v>919</v>
           </cell>
+          <cell r="U48">
+            <v>499</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="N49">
@@ -2554,6 +2842,9 @@
           <cell r="T49">
             <v>1119</v>
           </cell>
+          <cell r="U49">
+            <v>620</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="N50">
@@ -2562,6 +2853,9 @@
           <cell r="T50">
             <v>1320</v>
           </cell>
+          <cell r="U50">
+            <v>700</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="N51">
@@ -2570,6 +2864,9 @@
           <cell r="T51">
             <v>1570</v>
           </cell>
+          <cell r="U51">
+            <v>870</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="N52">
@@ -2578,6 +2875,9 @@
           <cell r="T52">
             <v>1871</v>
           </cell>
+          <cell r="U52">
+            <v>1001</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="N53">
@@ -2586,6 +2886,9 @@
           <cell r="T53">
             <v>2221</v>
           </cell>
+          <cell r="U53">
+            <v>1220</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="N54">
@@ -2594,6 +2897,9 @@
           <cell r="T54">
             <v>2597</v>
           </cell>
+          <cell r="U54">
+            <v>1377</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="N55">
@@ -2602,6 +2908,9 @@
           <cell r="T55">
             <v>3022</v>
           </cell>
+          <cell r="U55">
+            <v>1645</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="N56">
@@ -2610,6 +2919,9 @@
           <cell r="T56">
             <v>3473</v>
           </cell>
+          <cell r="U56">
+            <v>1828</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="N57">
@@ -2618,6 +2930,12 @@
           <cell r="T57">
             <v>3974</v>
           </cell>
+          <cell r="U57">
+            <v>2146</v>
+          </cell>
+          <cell r="V57">
+            <v>11906</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="N58">
@@ -2626,6 +2944,9 @@
           <cell r="T58">
             <v>4524</v>
           </cell>
+          <cell r="U58">
+            <v>2378</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="N59">
@@ -2634,6 +2955,9 @@
           <cell r="T59">
             <v>5125</v>
           </cell>
+          <cell r="U59">
+            <v>2747</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="N60">
@@ -2642,6 +2966,9 @@
           <cell r="T60">
             <v>5825</v>
           </cell>
+          <cell r="U60">
+            <v>3078</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="N61">
@@ -2650,6 +2977,9 @@
           <cell r="T61">
             <v>6726</v>
           </cell>
+          <cell r="U61">
+            <v>3648</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="N62">
@@ -2658,6 +2988,9 @@
           <cell r="T62">
             <v>7826</v>
           </cell>
+          <cell r="U62">
+            <v>4178</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="N63">
@@ -2666,6 +2999,9 @@
           <cell r="T63">
             <v>9126</v>
           </cell>
+          <cell r="U63">
+            <v>4948</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="N64">
@@ -2674,6 +3010,9 @@
           <cell r="T64">
             <v>10627</v>
           </cell>
+          <cell r="U64">
+            <v>5679</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="N65">
@@ -2682,6 +3021,9 @@
           <cell r="T65">
             <v>12327</v>
           </cell>
+          <cell r="U65">
+            <v>6648</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="N66">
@@ -2690,9 +3032,14 @@
           <cell r="T66">
             <v>14228</v>
           </cell>
+          <cell r="U66">
+            <v>7580</v>
+          </cell>
+          <cell r="V66">
+            <v>40884</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2980,13 +3327,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="8">
@@ -3015,24 +3356,238 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="5">
-          <cell r="H5">
-            <v>0.94233999999999996</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="产出消耗流图"/>
+      <sheetName val="产出投放规划"/>
+      <sheetName val="剧情副本产出分析"/>
+      <sheetName val="通天塔_BOSS"/>
+      <sheetName val="试炼"/>
+      <sheetName val="困难本"/>
+      <sheetName val="大冒险"/>
+      <sheetName val="公会_贡献值内部算法"/>
+      <sheetName val="公会商店"/>
+      <sheetName val="公会科技"/>
+      <sheetName val="公会任务"/>
+      <sheetName val="草稿"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="31">
+          <cell r="B31">
+            <v>0.11</v>
+          </cell>
+          <cell r="F31">
+            <v>0.12</v>
+          </cell>
+          <cell r="G31">
+            <v>0.15</v>
+          </cell>
+          <cell r="J31">
+            <v>0.66</v>
+          </cell>
+          <cell r="K31">
+            <v>1.35</v>
+          </cell>
+          <cell r="N31">
+            <v>1.4000000000000001</v>
+          </cell>
+          <cell r="O31">
+            <v>3</v>
+          </cell>
+          <cell r="R31">
+            <v>3.8000000000000003</v>
+          </cell>
+          <cell r="S31">
+            <v>4.3</v>
+          </cell>
+          <cell r="V31">
+            <v>7.5</v>
+          </cell>
+          <cell r="W31">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>0.05</v>
+          </cell>
+          <cell r="H32">
+            <v>0.06</v>
+          </cell>
+          <cell r="L32">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="P32">
+            <v>0.09</v>
+          </cell>
+          <cell r="T32">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="X32">
+            <v>0.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="21">
+          <cell r="C21">
+            <v>22995</v>
+          </cell>
+          <cell r="D21">
+            <v>31207.499999999996</v>
+          </cell>
+          <cell r="E21">
+            <v>88968.75</v>
+          </cell>
+          <cell r="F21">
+            <v>213524.99999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="21">
+          <cell r="B21">
+            <v>0.5</v>
+          </cell>
+          <cell r="C21">
+            <v>0.5</v>
+          </cell>
+          <cell r="F21">
+            <v>0.6</v>
+          </cell>
+          <cell r="G21">
+            <v>0.8</v>
+          </cell>
+          <cell r="J21">
+            <v>0.65</v>
+          </cell>
+          <cell r="K21">
+            <v>0.82000000000000006</v>
+          </cell>
+          <cell r="N21">
+            <v>0.8</v>
+          </cell>
+          <cell r="O21">
+            <v>0.85</v>
+          </cell>
+          <cell r="R21">
+            <v>0.9</v>
+          </cell>
+          <cell r="S21">
+            <v>1.07</v>
+          </cell>
+          <cell r="V21">
+            <v>1.18</v>
+          </cell>
+          <cell r="W21">
+            <v>1.51</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="18">
+          <cell r="M18">
+            <v>2.2199999999999998</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>2.59</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="M24">
+            <v>2.96</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="M27">
+            <v>3.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="产出消耗流图"/>
+      <sheetName val="产出投放规划"/>
+      <sheetName val="剧情副本产出分析"/>
+      <sheetName val="试炼"/>
+      <sheetName val="通天塔_BOSS"/>
+      <sheetName val="困难本"/>
+      <sheetName val="大冒险"/>
+      <sheetName val="公会_贡献值内部算法"/>
+      <sheetName val="公会商店"/>
+      <sheetName val="公会科技"/>
+      <sheetName val="公会任务"/>
+      <sheetName val="草稿"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1">
+        <row r="18">
+          <cell r="N18">
+            <v>1.26</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>1.47</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>1.68</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>2.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3325,18 +3880,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -3351,60 +3908,60 @@
     <col min="23" max="24" width="9" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="34" width="9" style="1"/>
-    <col min="35" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="1"/>
+    <col min="27" max="28" width="9" style="1"/>
+    <col min="29" max="29" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="9" style="1"/>
+    <col min="33" max="43" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="57" t="s">
+      <c r="U2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="59"/>
-      <c r="AI2" s="1">
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="64"/>
+      <c r="AG2" s="1">
         <v>2</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AL2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3437,11 +3994,9 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="14"/>
+      <c r="AE3" s="14"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>3</v>
@@ -3523,18 +4078,14 @@
       <c r="AC4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AE4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="21" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3588,7 +4139,7 @@
       </c>
       <c r="T5" s="32"/>
       <c r="U5" s="15">
-        <f t="shared" ref="U5:U54" si="6">ROUNDDOWN(F6/($U$3*A6+$AI$2),0)</f>
+        <f>ROUNDDOWN(F6/($U$3*A6+$AG$2),0)</f>
         <v>54</v>
       </c>
       <c r="V5" s="33">
@@ -3614,18 +4165,16 @@
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="25"/>
-      <c r="AI5" s="1">
+      <c r="AE5" s="25"/>
+      <c r="AG5" s="1">
         <v>1</v>
       </c>
-      <c r="AJ5" s="1">
-        <f>1/(0.6*AI5+1)</f>
+      <c r="AH5" s="1">
+        <f>1/(0.6*AG5+1)</f>
         <v>0.625</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -3646,7 +4195,7 @@
         <v>500</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" ref="F6:F54" si="7">E6*4*5</f>
+        <f t="shared" ref="F6:F54" si="6">E6*4*5</f>
         <v>10000</v>
       </c>
       <c r="G6" s="16"/>
@@ -3685,7 +4234,7 @@
       </c>
       <c r="T6" s="32"/>
       <c r="U6" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F7/($U$3*A7+$AG$2),0)</f>
         <v>77</v>
       </c>
       <c r="V6" s="33">
@@ -3704,37 +4253,35 @@
         <v>1.5</v>
       </c>
       <c r="Z6" s="33">
-        <f t="shared" ref="Z6:Z24" si="8">ROUNDDOWN(M6*Y6-V6,-3)</f>
+        <f t="shared" ref="Z6:Z24" si="7">ROUNDDOWN(M6*Y6-V6,-3)</f>
         <v>25000</v>
       </c>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="25"/>
-      <c r="AI6" s="1">
+      <c r="AE6" s="25"/>
+      <c r="AG6" s="1">
         <v>2</v>
       </c>
-      <c r="AJ6" s="1">
-        <f t="shared" ref="AJ6:AJ34" si="9">1/(0.6*AI6+1)</f>
+      <c r="AH6" s="1">
+        <f t="shared" ref="AH6:AH34" si="8">1/(0.6*AG6+1)</f>
         <v>0.45454545454545453</v>
       </c>
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>5</v>
+      </c>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -3755,7 +4302,7 @@
         <v>1050</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21000</v>
       </c>
       <c r="G7" s="16"/>
@@ -3794,56 +4341,54 @@
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F8/($U$3*A8+$AG$2),0)</f>
         <v>91</v>
       </c>
       <c r="V7" s="33">
-        <f t="shared" ref="V7:V53" si="10">(W7-W6)*U7+V6</f>
+        <f t="shared" ref="V7:V53" si="9">(W7-W6)*U7+V6</f>
         <v>703</v>
       </c>
       <c r="W7" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T20</f>
         <v>9</v>
       </c>
-      <c r="X7" s="33" t="e">
+      <c r="X7" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N20)</f>
-        <v>#REF!</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="34">
         <v>1.8</v>
       </c>
       <c r="Z7" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61000</v>
       </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="25"/>
-      <c r="AI7" s="1">
+      <c r="AE7" s="25"/>
+      <c r="AG7" s="1">
         <v>3</v>
       </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH7" s="1">
+        <f t="shared" si="8"/>
         <v>0.35714285714285715</v>
       </c>
+      <c r="AK7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>8</v>
+      </c>
       <c r="AM7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN7" s="1">
-        <v>8</v>
-      </c>
-      <c r="AO7" s="1">
         <v>4</v>
       </c>
-      <c r="AP7" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -3864,7 +4409,7 @@
         <v>1650</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33000</v>
       </c>
       <c r="G8" s="16"/>
@@ -3903,56 +4448,54 @@
       </c>
       <c r="T8" s="32"/>
       <c r="U8" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F9/($U$3*A9+$AG$2),0)</f>
         <v>101</v>
       </c>
       <c r="V8" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1208</v>
       </c>
       <c r="W8" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T21</f>
         <v>14</v>
       </c>
-      <c r="X8" s="33" t="e">
+      <c r="X8" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N21)</f>
-        <v>#REF!</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="34">
         <v>1.7</v>
       </c>
       <c r="Z8" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>90000</v>
       </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="25"/>
-      <c r="AI8" s="1">
+      <c r="AE8" s="25"/>
+      <c r="AG8" s="1">
         <v>4</v>
       </c>
-      <c r="AJ8" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH8" s="1">
+        <f t="shared" si="8"/>
         <v>0.29411764705882354</v>
       </c>
+      <c r="AK8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>16</v>
+      </c>
       <c r="AM8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -3973,7 +4516,7 @@
         <v>2300</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>46000</v>
       </c>
       <c r="G9" s="16"/>
@@ -4012,44 +4555,44 @@
       </c>
       <c r="T9" s="32"/>
       <c r="U9" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F10/($U$3*A10+$AG$2),0)</f>
         <v>110</v>
       </c>
       <c r="V9" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1868</v>
       </c>
       <c r="W9" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T22</f>
         <v>20</v>
       </c>
-      <c r="X9" s="33" t="e">
+      <c r="X9" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N22)</f>
-        <v>#REF!</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="34">
         <v>1.6</v>
       </c>
       <c r="Z9" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>119000</v>
       </c>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="25"/>
-      <c r="AI9" s="1">
+      <c r="AE9" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG9" s="1">
         <v>5</v>
       </c>
-      <c r="AJ9" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH9" s="1">
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -4070,7 +4613,7 @@
         <v>3000</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60000</v>
       </c>
       <c r="G10" s="16"/>
@@ -4109,44 +4652,44 @@
       </c>
       <c r="T10" s="32"/>
       <c r="U10" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F11/($U$3*A11+$AG$2),0)</f>
         <v>118</v>
       </c>
       <c r="V10" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2576</v>
       </c>
       <c r="W10" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T23</f>
         <v>26</v>
       </c>
-      <c r="X10" s="33" t="e">
+      <c r="X10" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N23)</f>
-        <v>#REF!</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="34">
         <v>1.5</v>
       </c>
       <c r="Z10" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>156000</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="25"/>
-      <c r="AI10" s="1">
+      <c r="AE10" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG10" s="1">
         <v>6</v>
       </c>
-      <c r="AJ10" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH10" s="1">
+        <f t="shared" si="8"/>
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -4167,7 +4710,7 @@
         <v>3750</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75000</v>
       </c>
       <c r="G11" s="16"/>
@@ -4206,44 +4749,44 @@
       </c>
       <c r="T11" s="32"/>
       <c r="U11" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F12/($U$3*A12+$AG$2),0)</f>
         <v>126</v>
       </c>
       <c r="V11" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3584</v>
       </c>
       <c r="W11" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T24</f>
         <v>34</v>
       </c>
-      <c r="X11" s="33" t="e">
+      <c r="X11" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N24)</f>
-        <v>#REF!</v>
+        <v>13</v>
       </c>
       <c r="Y11" s="34">
         <v>1.4</v>
       </c>
       <c r="Z11" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>207000</v>
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="25"/>
-      <c r="AI11" s="1">
+      <c r="AE11" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG11" s="1">
         <v>7</v>
       </c>
-      <c r="AJ11" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH11" s="1">
+        <f t="shared" si="8"/>
         <v>0.19230769230769229</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -4264,7 +4807,7 @@
         <v>4550</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>91000</v>
       </c>
       <c r="G12" s="16"/>
@@ -4303,44 +4846,44 @@
       </c>
       <c r="T12" s="32"/>
       <c r="U12" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F13/($U$3*A13+$AG$2),0)</f>
         <v>133</v>
       </c>
       <c r="V12" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4781</v>
       </c>
       <c r="W12" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T25</f>
         <v>43</v>
       </c>
-      <c r="X12" s="33" t="e">
+      <c r="X12" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N25)</f>
-        <v>#REF!</v>
+        <v>15</v>
       </c>
       <c r="Y12" s="34">
         <v>1.3</v>
       </c>
       <c r="Z12" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>264000</v>
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="25"/>
-      <c r="AI12" s="1">
+      <c r="AE12" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG12" s="1">
         <v>8</v>
       </c>
-      <c r="AJ12" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH12" s="1">
+        <f t="shared" si="8"/>
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -4361,7 +4904,7 @@
         <v>5400</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>108000</v>
       </c>
       <c r="G13" s="16"/>
@@ -4400,44 +4943,44 @@
       </c>
       <c r="T13" s="32"/>
       <c r="U13" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F14/($U$3*A14+$AG$2),0)</f>
         <v>139</v>
       </c>
       <c r="V13" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6171</v>
       </c>
       <c r="W13" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T26</f>
         <v>53</v>
       </c>
-      <c r="X13" s="33" t="e">
+      <c r="X13" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N26)</f>
-        <v>#REF!</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="34">
         <v>1.2</v>
       </c>
       <c r="Z13" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>334000</v>
       </c>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="25"/>
-      <c r="AI13" s="1">
+      <c r="AE13" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG13" s="1">
         <v>9</v>
       </c>
-      <c r="AJ13" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH13" s="1">
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -4458,18 +5001,18 @@
         <v>6300</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>126000</v>
       </c>
       <c r="G14" s="16">
         <v>8000</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" ref="H14:H23" si="11">$G$14*5</f>
+        <f t="shared" ref="H14:H23" si="10">$G$14*5</f>
         <v>40000</v>
       </c>
       <c r="I14" s="17">
-        <f t="shared" ref="I14:I23" si="12">$G$14*5*6</f>
+        <f t="shared" ref="I14:I23" si="11">$G$14*5*6</f>
         <v>240000</v>
       </c>
       <c r="J14" s="16"/>
@@ -4505,44 +5048,44 @@
       </c>
       <c r="T14" s="32"/>
       <c r="U14" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F15/($U$3*A15+$AG$2),0)</f>
         <v>146</v>
       </c>
       <c r="V14" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7777</v>
       </c>
       <c r="W14" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T27</f>
         <v>64</v>
       </c>
-      <c r="X14" s="33" t="e">
+      <c r="X14" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N27)</f>
-        <v>#REF!</v>
+        <v>19</v>
       </c>
       <c r="Y14" s="34">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z14" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>632000</v>
       </c>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="25"/>
-      <c r="AI14" s="1">
+      <c r="AE14" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG14" s="1">
         <v>10</v>
       </c>
-      <c r="AJ14" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH14" s="1">
+        <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -4563,16 +5106,16 @@
         <v>7250</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>145000</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I15" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J15" s="16"/>
@@ -4608,44 +5151,44 @@
       </c>
       <c r="T15" s="32"/>
       <c r="U15" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F16/($U$3*A16+$AG$2),0)</f>
         <v>161</v>
       </c>
       <c r="V15" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8421</v>
       </c>
       <c r="W15" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T28</f>
         <v>68</v>
       </c>
-      <c r="X15" s="33" t="e">
+      <c r="X15" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N28)</f>
-        <v>#REF!</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="34">
         <v>1</v>
       </c>
       <c r="Z15" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>622000</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="25"/>
-      <c r="AI15" s="1">
+      <c r="AE15" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG15" s="1">
         <v>11</v>
       </c>
-      <c r="AJ15" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH15" s="1">
+        <f t="shared" si="8"/>
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -4666,16 +5209,16 @@
         <v>8750</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>175000</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I16" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J16" s="16"/>
@@ -4711,44 +5254,44 @@
       </c>
       <c r="T16" s="32"/>
       <c r="U16" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F17/($U$3*A17+$AG$2),0)</f>
         <v>176</v>
       </c>
       <c r="V16" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9477</v>
       </c>
       <c r="W16" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T29</f>
         <v>74</v>
       </c>
-      <c r="X16" s="33" t="e">
+      <c r="X16" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N29)</f>
-        <v>#REF!</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="34">
         <v>1.45</v>
       </c>
       <c r="Z16" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>997000</v>
       </c>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="25"/>
-      <c r="AI16" s="1">
+      <c r="AE16" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG16" s="1">
         <v>12</v>
       </c>
-      <c r="AJ16" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH16" s="1">
+        <f t="shared" si="8"/>
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -4769,16 +5312,16 @@
         <v>10350</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>207000</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I17" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J17" s="16"/>
@@ -4814,44 +5357,44 @@
       </c>
       <c r="T17" s="32"/>
       <c r="U17" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F18/($U$3*A18+$AG$2),0)</f>
         <v>190</v>
       </c>
       <c r="V17" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10997</v>
       </c>
       <c r="W17" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T30</f>
         <v>82</v>
       </c>
-      <c r="X17" s="33" t="e">
+      <c r="X17" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N30)</f>
-        <v>#REF!</v>
+        <v>24</v>
       </c>
       <c r="Y17" s="34">
         <v>1.4</v>
       </c>
       <c r="Z17" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1106000</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="25"/>
-      <c r="AI17" s="1">
+      <c r="AE17" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG17" s="1">
         <v>13</v>
       </c>
-      <c r="AJ17" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH17" s="1">
+        <f t="shared" si="8"/>
         <v>0.11363636363636363</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -4872,16 +5415,16 @@
         <v>12050</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>241000</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I18" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J18" s="16"/>
@@ -4917,44 +5460,44 @@
       </c>
       <c r="T18" s="32"/>
       <c r="U18" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F19/($U$3*A19+$AG$2),0)</f>
         <v>204</v>
       </c>
       <c r="V18" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12629</v>
       </c>
       <c r="W18" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T31</f>
         <v>90</v>
       </c>
-      <c r="X18" s="33" t="e">
+      <c r="X18" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N31)</f>
-        <v>#REF!</v>
+        <v>26</v>
       </c>
       <c r="Y18" s="34">
         <v>1.35</v>
       </c>
       <c r="Z18" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1268000</v>
       </c>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="25"/>
-      <c r="AI18" s="1">
+      <c r="AE18" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG18" s="1">
         <v>14</v>
       </c>
-      <c r="AJ18" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH18" s="1">
+        <f t="shared" si="8"/>
         <v>0.10638297872340426</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -4975,16 +5518,16 @@
         <v>13850</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>277000</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I19" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J19" s="16">
@@ -5026,26 +5569,26 @@
       </c>
       <c r="T19" s="32"/>
       <c r="U19" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F20/($U$3*A20+$AG$2),0)</f>
         <v>218</v>
       </c>
       <c r="V19" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14809</v>
       </c>
       <c r="W19" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T32</f>
         <v>100</v>
       </c>
-      <c r="X19" s="33" t="e">
+      <c r="X19" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N32)</f>
-        <v>#REF!</v>
+        <v>28</v>
       </c>
       <c r="Y19" s="34">
         <v>1.24</v>
       </c>
       <c r="Z19" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1401000</v>
       </c>
       <c r="AA19" s="16">
@@ -5053,23 +5596,28 @@
         <v>436</v>
       </c>
       <c r="AB19" s="16">
-        <f>VLOOKUP($AN$2,$AM$6:$AP$8,2,0)*AA19</f>
+        <f>VLOOKUP($AL$2,$AK$6:$AN$8,2,0)*AA19</f>
         <v>2180</v>
       </c>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="25"/>
-      <c r="AI19" s="1">
+      <c r="AC19" s="16">
+        <f>[5]试炼!$C$21*4*INT((U19-$U$19)+1)</f>
+        <v>91980</v>
+      </c>
+      <c r="AD19" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="AE19" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG19" s="1">
         <v>15</v>
       </c>
-      <c r="AJ19" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH19" s="1">
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -5090,16 +5638,16 @@
         <v>15750</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>315000</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I20" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J20" s="16"/>
@@ -5138,50 +5686,55 @@
       </c>
       <c r="T20" s="32"/>
       <c r="U20" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F21/($U$3*A21+$AG$2),0)</f>
         <v>231</v>
       </c>
       <c r="V20" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17119</v>
       </c>
       <c r="W20" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T33</f>
         <v>110</v>
       </c>
-      <c r="X20" s="33" t="e">
+      <c r="X20" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N33)</f>
-        <v>#REF!</v>
+        <v>29</v>
       </c>
       <c r="Y20" s="34">
         <v>1.1299999999999999</v>
       </c>
       <c r="Z20" s="33">
+        <f t="shared" si="7"/>
+        <v>1545000</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20:AA53" si="12">U20*2</f>
+        <v>462</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20:AB53" si="13">VLOOKUP($AL$2,$AK$6:$AN$8,2,0)*AA20</f>
+        <v>2310</v>
+      </c>
+      <c r="AC20" s="16">
+        <f>[5]试炼!$C$21*4*INT((U20-$U$19)+1)</f>
+        <v>1287720</v>
+      </c>
+      <c r="AD20" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE20" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH20" s="1">
         <f t="shared" si="8"/>
-        <v>1545000</v>
-      </c>
-      <c r="AA20" s="16">
-        <f t="shared" ref="AA20:AA53" si="13">U20*2</f>
-        <v>462</v>
-      </c>
-      <c r="AB20" s="16">
-        <f t="shared" ref="AB20:AB53" si="14">VLOOKUP($AN$2,$AM$6:$AP$8,2,0)*AA20</f>
-        <v>2310</v>
-      </c>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="25"/>
-      <c r="AI20" s="1">
-        <v>16</v>
-      </c>
-      <c r="AJ20" s="1">
-        <f t="shared" si="9"/>
         <v>9.4339622641509441E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>17</v>
       </c>
@@ -5202,16 +5755,16 @@
         <v>17750</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>355000</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I21" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J21" s="16"/>
@@ -5250,50 +5803,55 @@
       </c>
       <c r="T21" s="32"/>
       <c r="U21" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F22/($U$3*A22+$AG$2),0)</f>
         <v>244</v>
       </c>
       <c r="V21" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20291</v>
       </c>
       <c r="W21" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T34</f>
         <v>123</v>
       </c>
-      <c r="X21" s="33" t="e">
+      <c r="X21" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N34)</f>
-        <v>#REF!</v>
+        <v>31</v>
       </c>
       <c r="Y21" s="34">
         <v>1.02</v>
       </c>
       <c r="Z21" s="33">
+        <f t="shared" si="7"/>
+        <v>1700000</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="12"/>
+        <v>488</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="13"/>
+        <v>2440</v>
+      </c>
+      <c r="AC21" s="16">
+        <f>[5]试炼!$C$21*4*INT((U21-$U$19)+1)</f>
+        <v>2483460</v>
+      </c>
+      <c r="AD21" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE21" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH21" s="1">
         <f t="shared" si="8"/>
-        <v>1700000</v>
-      </c>
-      <c r="AA21" s="16">
-        <f t="shared" si="13"/>
-        <v>488</v>
-      </c>
-      <c r="AB21" s="16">
-        <f t="shared" si="14"/>
-        <v>2440</v>
-      </c>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="25"/>
-      <c r="AI21" s="1">
-        <v>17</v>
-      </c>
-      <c r="AJ21" s="1">
-        <f t="shared" si="9"/>
         <v>8.9285714285714288E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>18</v>
       </c>
@@ -5314,16 +5872,16 @@
         <v>19850</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>397000</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I22" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I22" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J22" s="16"/>
@@ -5362,50 +5920,55 @@
       </c>
       <c r="T22" s="32"/>
       <c r="U22" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F23/($U$3*A23+$AG$2),0)</f>
         <v>257</v>
       </c>
       <c r="V22" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>23889</v>
       </c>
       <c r="W22" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T35</f>
         <v>137</v>
       </c>
-      <c r="X22" s="33" t="e">
+      <c r="X22" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N35)</f>
-        <v>#REF!</v>
+        <v>33</v>
       </c>
       <c r="Y22" s="34">
         <v>0.91</v>
       </c>
       <c r="Z22" s="33">
+        <f t="shared" si="7"/>
+        <v>1850000</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="12"/>
+        <v>514</v>
+      </c>
+      <c r="AB22" s="16">
+        <f t="shared" si="13"/>
+        <v>2570</v>
+      </c>
+      <c r="AC22" s="16">
+        <f>[5]试炼!$C$21*4*INT((U22-$U$19)+1)</f>
+        <v>3679200</v>
+      </c>
+      <c r="AD22" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE22" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>18</v>
+      </c>
+      <c r="AH22" s="1">
         <f t="shared" si="8"/>
-        <v>1850000</v>
-      </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="13"/>
-        <v>514</v>
-      </c>
-      <c r="AB22" s="16">
-        <f t="shared" si="14"/>
-        <v>2570</v>
-      </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="25"/>
-      <c r="AI22" s="1">
-        <v>18</v>
-      </c>
-      <c r="AJ22" s="1">
-        <f t="shared" si="9"/>
         <v>8.4745762711864417E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>19</v>
       </c>
@@ -5426,16 +5989,16 @@
         <v>22050</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>441000</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I23" s="17">
         <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
       <c r="J23" s="16"/>
@@ -5474,50 +6037,55 @@
       </c>
       <c r="T23" s="32"/>
       <c r="U23" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F24/($U$3*A24+$AG$2),0)</f>
         <v>270</v>
       </c>
       <c r="V23" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27669</v>
       </c>
       <c r="W23" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T36</f>
         <v>151</v>
       </c>
-      <c r="X23" s="33" t="e">
+      <c r="X23" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N36)</f>
-        <v>#REF!</v>
+        <v>34</v>
       </c>
       <c r="Y23" s="34">
         <v>0.8</v>
       </c>
       <c r="Z23" s="33">
+        <f t="shared" si="7"/>
+        <v>1958000</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" si="12"/>
+        <v>540</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" si="13"/>
+        <v>2700</v>
+      </c>
+      <c r="AC23" s="16">
+        <f>[5]试炼!$C$21*4*INT((U23-$U$19)+1)</f>
+        <v>4874940</v>
+      </c>
+      <c r="AD23" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE23" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH23" s="1">
         <f t="shared" si="8"/>
-        <v>1958000</v>
-      </c>
-      <c r="AA23" s="16">
-        <f t="shared" si="13"/>
-        <v>540</v>
-      </c>
-      <c r="AB23" s="16">
-        <f t="shared" si="14"/>
-        <v>2700</v>
-      </c>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="25"/>
-      <c r="AI23" s="1">
-        <v>19</v>
-      </c>
-      <c r="AJ23" s="1">
-        <f t="shared" si="9"/>
         <v>8.0645161290322578E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>20</v>
       </c>
@@ -5535,7 +6103,7 @@
         <v>24350</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>487000</v>
       </c>
       <c r="G24" s="16">
@@ -5588,50 +6156,55 @@
       </c>
       <c r="T24" s="32"/>
       <c r="U24" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F25/($U$3*A25+$AG$2),0)</f>
         <v>282</v>
       </c>
       <c r="V24" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32181</v>
       </c>
       <c r="W24" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T37</f>
         <v>167</v>
       </c>
-      <c r="X24" s="33" t="e">
+      <c r="X24" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N37)</f>
-        <v>#REF!</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="34">
         <v>0.68999999999999895</v>
       </c>
       <c r="Z24" s="33">
+        <f t="shared" si="7"/>
+        <v>2074000</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="12"/>
+        <v>564</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="13"/>
+        <v>2820</v>
+      </c>
+      <c r="AC24" s="16">
+        <f>[5]试炼!$C$21*4*INT((U24-$U$19)+1)</f>
+        <v>5978700</v>
+      </c>
+      <c r="AD24" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE24" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH24" s="1">
         <f t="shared" si="8"/>
-        <v>2074000</v>
-      </c>
-      <c r="AA24" s="16">
-        <f t="shared" si="13"/>
-        <v>564</v>
-      </c>
-      <c r="AB24" s="16">
-        <f t="shared" si="14"/>
-        <v>2820</v>
-      </c>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="25"/>
-      <c r="AI24" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ24" s="1">
-        <f t="shared" si="9"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>21</v>
       </c>
@@ -5652,7 +6225,7 @@
         <v>26750</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>535000</v>
       </c>
       <c r="G25" s="16"/>
@@ -5703,20 +6276,20 @@
       </c>
       <c r="T25" s="32"/>
       <c r="U25" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F26/($U$3*A26+$AG$2),0)</f>
         <v>305</v>
       </c>
       <c r="V25" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>37366</v>
       </c>
       <c r="W25" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T38</f>
         <v>184</v>
       </c>
-      <c r="X25" s="33" t="e">
+      <c r="X25" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N38)</f>
-        <v>#REF!</v>
+        <v>36</v>
       </c>
       <c r="Y25" s="34">
         <v>0.57999999999999896</v>
@@ -5726,27 +6299,32 @@
         <v>2074000</v>
       </c>
       <c r="AA25" s="16">
+        <f t="shared" si="12"/>
+        <v>610</v>
+      </c>
+      <c r="AB25" s="16">
         <f t="shared" si="13"/>
-        <v>610</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="14"/>
         <v>3050</v>
       </c>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="25"/>
-      <c r="AI25" s="1">
+      <c r="AC25" s="16">
+        <f>[5]试炼!$C$21*4*INT((U25-$U$19)+1)</f>
+        <v>8094240</v>
+      </c>
+      <c r="AD25" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE25" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG25" s="1">
         <v>21</v>
       </c>
-      <c r="AJ25" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH25" s="1">
+        <f t="shared" si="8"/>
         <v>7.3529411764705885E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -5767,7 +6345,7 @@
         <v>30250</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>605000</v>
       </c>
       <c r="G26" s="16"/>
@@ -5818,50 +6396,55 @@
       </c>
       <c r="T26" s="32"/>
       <c r="U26" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F27/($U$3*A27+$AG$2),0)</f>
         <v>327</v>
       </c>
       <c r="V26" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43579</v>
       </c>
       <c r="W26" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T39</f>
         <v>203</v>
       </c>
-      <c r="X26" s="33" t="e">
+      <c r="X26" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N39)</f>
-        <v>#REF!</v>
+        <v>37</v>
       </c>
       <c r="Y26" s="34">
         <v>0.51</v>
       </c>
       <c r="Z26" s="33">
-        <f t="shared" ref="Z26:Z53" si="15">Z25</f>
+        <f t="shared" ref="Z26:Z53" si="14">Z25</f>
         <v>2074000</v>
       </c>
       <c r="AA26" s="16">
+        <f t="shared" si="12"/>
+        <v>654</v>
+      </c>
+      <c r="AB26" s="16">
         <f t="shared" si="13"/>
-        <v>654</v>
-      </c>
-      <c r="AB26" s="16">
-        <f t="shared" si="14"/>
         <v>3270</v>
       </c>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="25"/>
-      <c r="AI26" s="1">
+      <c r="AC26" s="16">
+        <f>[5]试炼!$C$21*4*INT((U26-$U$19)+1)</f>
+        <v>10117800</v>
+      </c>
+      <c r="AD26" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE26" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AG26" s="1">
         <v>22</v>
       </c>
-      <c r="AJ26" s="1">
-        <f t="shared" si="9"/>
+      <c r="AH26" s="1">
+        <f t="shared" si="8"/>
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -5882,7 +6465,7 @@
         <v>33900</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>678000</v>
       </c>
       <c r="G27" s="16"/>
@@ -5933,47 +6516,52 @@
       </c>
       <c r="T27" s="32"/>
       <c r="U27" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F28/($U$3*A28+$AG$2),0)</f>
         <v>348</v>
       </c>
       <c r="V27" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51931</v>
       </c>
       <c r="W27" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T40</f>
         <v>227</v>
       </c>
-      <c r="X27" s="33" t="e">
+      <c r="X27" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N40)</f>
-        <v>#REF!</v>
+        <v>38</v>
       </c>
       <c r="Y27" s="34">
         <v>0.440000000000001</v>
       </c>
       <c r="Z27" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA27" s="16">
+        <f t="shared" si="12"/>
+        <v>696</v>
+      </c>
+      <c r="AB27" s="16">
         <f t="shared" si="13"/>
-        <v>696</v>
-      </c>
-      <c r="AB27" s="16">
-        <f t="shared" si="14"/>
         <v>3480</v>
       </c>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="25"/>
-      <c r="AJ27" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC27" s="16">
+        <f>[5]试炼!$C$21*4*INT((U27-$U$19)+1)</f>
+        <v>12049380</v>
+      </c>
+      <c r="AD27" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE27" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH27" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -5994,7 +6582,7 @@
         <v>37700</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>754000</v>
       </c>
       <c r="G28" s="16"/>
@@ -6045,47 +6633,52 @@
       </c>
       <c r="T28" s="32"/>
       <c r="U28" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F29/($U$3*A29+$AG$2),0)</f>
         <v>369</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>64108</v>
       </c>
       <c r="W28" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T41</f>
         <v>260</v>
       </c>
-      <c r="X28" s="33" t="e">
+      <c r="X28" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N41)</f>
-        <v>#REF!</v>
+        <v>38</v>
       </c>
       <c r="Y28" s="34">
         <v>0.37000000000000199</v>
       </c>
       <c r="Z28" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA28" s="16">
+        <f t="shared" si="12"/>
+        <v>738</v>
+      </c>
+      <c r="AB28" s="16">
         <f t="shared" si="13"/>
-        <v>738</v>
-      </c>
-      <c r="AB28" s="16">
-        <f t="shared" si="14"/>
         <v>3690</v>
       </c>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="25"/>
-      <c r="AJ28" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC28" s="16">
+        <f>[5]试炼!$C$21*4*INT((U28-$U$19)+1)</f>
+        <v>13980960</v>
+      </c>
+      <c r="AD28" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE28" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -6106,7 +6699,7 @@
         <v>41650</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>833000</v>
       </c>
       <c r="G29" s="16"/>
@@ -6160,47 +6753,52 @@
       </c>
       <c r="T29" s="32"/>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F30/($U$3*A30+$AG$2),0)</f>
         <v>390</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>78928</v>
       </c>
       <c r="W29" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T42</f>
         <v>298</v>
       </c>
-      <c r="X29" s="33" t="e">
+      <c r="X29" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N42)</f>
-        <v>#REF!</v>
+        <v>39</v>
       </c>
       <c r="Y29" s="34">
         <v>0.33000000000000301</v>
       </c>
       <c r="Z29" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA29" s="16">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+      <c r="AB29" s="16">
         <f t="shared" si="13"/>
-        <v>780</v>
-      </c>
-      <c r="AB29" s="16">
-        <f t="shared" si="14"/>
         <v>3900</v>
       </c>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="25"/>
-      <c r="AJ29" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC29" s="16">
+        <f>[5]试炼!$D$21*4*INT((U29-$U$19)+1)</f>
+        <v>21595589.999999996</v>
+      </c>
+      <c r="AD29" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE29" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -6221,7 +6819,7 @@
         <v>45750</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>915000</v>
       </c>
       <c r="G30" s="16"/>
@@ -6272,47 +6870,52 @@
       </c>
       <c r="T30" s="32"/>
       <c r="U30" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F31/($U$3*A31+$AG$2),0)</f>
         <v>411</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>98656</v>
       </c>
       <c r="W30" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T43</f>
         <v>346</v>
       </c>
-      <c r="X30" s="33" t="e">
+      <c r="X30" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N43)</f>
-        <v>#REF!</v>
+        <v>40</v>
       </c>
       <c r="Y30" s="34">
         <v>0.29000000000000398</v>
       </c>
       <c r="Z30" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA30" s="16">
+        <f t="shared" si="12"/>
+        <v>822</v>
+      </c>
+      <c r="AB30" s="16">
         <f t="shared" si="13"/>
-        <v>822</v>
-      </c>
-      <c r="AB30" s="16">
-        <f t="shared" si="14"/>
         <v>4110</v>
       </c>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="25"/>
-      <c r="AJ30" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC30" s="16">
+        <f>[5]试炼!$D$21*4*INT((U30-$U$19)+1)</f>
+        <v>24217019.999999996</v>
+      </c>
+      <c r="AD30" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE30" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH30" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -6333,7 +6936,7 @@
         <v>50000</v>
       </c>
       <c r="F31" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1000000</v>
       </c>
       <c r="G31" s="16"/>
@@ -6384,47 +6987,52 @@
       </c>
       <c r="T31" s="32"/>
       <c r="U31" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F32/($U$3*A32+$AG$2),0)</f>
         <v>431</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>126240</v>
       </c>
       <c r="W31" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T44</f>
         <v>410</v>
       </c>
-      <c r="X31" s="33" t="e">
+      <c r="X31" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N44)</f>
-        <v>#REF!</v>
+        <v>41</v>
       </c>
       <c r="Y31" s="34">
         <v>0.26</v>
       </c>
       <c r="Z31" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA31" s="16">
+        <f t="shared" si="12"/>
+        <v>862</v>
+      </c>
+      <c r="AB31" s="16">
         <f t="shared" si="13"/>
-        <v>862</v>
-      </c>
-      <c r="AB31" s="16">
-        <f t="shared" si="14"/>
         <v>4310</v>
       </c>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="25"/>
-      <c r="AJ31" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC31" s="16">
+        <f>[5]试炼!$D$21*4*INT((U31-$U$19)+1)</f>
+        <v>26713619.999999996</v>
+      </c>
+      <c r="AD31" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE31" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -6445,7 +7053,7 @@
         <v>54400</v>
       </c>
       <c r="F32" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1088000</v>
       </c>
       <c r="G32" s="16"/>
@@ -6496,47 +7104,52 @@
       </c>
       <c r="T32" s="32"/>
       <c r="U32" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F33/($U$3*A33+$AG$2),0)</f>
         <v>451</v>
       </c>
       <c r="V32" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>163222</v>
       </c>
       <c r="W32" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T45</f>
         <v>492</v>
       </c>
-      <c r="X32" s="33" t="e">
+      <c r="X32" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N45)</f>
-        <v>#REF!</v>
+        <v>41</v>
       </c>
       <c r="Y32" s="34">
         <v>0.23</v>
       </c>
       <c r="Z32" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA32" s="16">
+        <f t="shared" si="12"/>
+        <v>902</v>
+      </c>
+      <c r="AB32" s="16">
         <f t="shared" si="13"/>
-        <v>902</v>
-      </c>
-      <c r="AB32" s="16">
-        <f t="shared" si="14"/>
         <v>4510</v>
       </c>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="25"/>
-      <c r="AJ32" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC32" s="16">
+        <f>[5]试炼!$D$21*4*INT((U32-$U$19)+1)</f>
+        <v>29210219.999999996</v>
+      </c>
+      <c r="AD32" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE32" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH32" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -6557,7 +7170,7 @@
         <v>58950</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1179000</v>
       </c>
       <c r="G33" s="16"/>
@@ -6608,47 +7221,52 @@
       </c>
       <c r="T33" s="32"/>
       <c r="U33" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F34/($U$3*A34+$AG$2),0)</f>
         <v>471</v>
       </c>
       <c r="V33" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>210793</v>
       </c>
       <c r="W33" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T46</f>
         <v>593</v>
       </c>
-      <c r="X33" s="33" t="e">
+      <c r="X33" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N46)</f>
-        <v>#REF!</v>
+        <v>42</v>
       </c>
       <c r="Y33" s="34">
         <v>0.2</v>
       </c>
       <c r="Z33" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA33" s="16">
+        <f t="shared" si="12"/>
+        <v>942</v>
+      </c>
+      <c r="AB33" s="16">
         <f t="shared" si="13"/>
-        <v>942</v>
-      </c>
-      <c r="AB33" s="16">
-        <f t="shared" si="14"/>
         <v>4710</v>
       </c>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="25"/>
-      <c r="AJ33" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC33" s="16">
+        <f>[5]试炼!$D$21*4*INT((U33-$U$19)+1)</f>
+        <v>31706819.999999996</v>
+      </c>
+      <c r="AD33" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE33" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH33" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -6666,7 +7284,7 @@
         <v>63650</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1273000</v>
       </c>
       <c r="G34" s="16"/>
@@ -6720,47 +7338,52 @@
       </c>
       <c r="T34" s="32"/>
       <c r="U34" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F35/($U$3*A35+$AG$2),0)</f>
         <v>490</v>
       </c>
       <c r="V34" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>284293</v>
       </c>
       <c r="W34" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T47</f>
         <v>743</v>
       </c>
-      <c r="X34" s="33" t="e">
+      <c r="X34" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N47)</f>
-        <v>#REF!</v>
+        <v>42</v>
       </c>
       <c r="Y34" s="34">
         <v>0.17</v>
       </c>
       <c r="Z34" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA34" s="16">
+        <f t="shared" si="12"/>
+        <v>980</v>
+      </c>
+      <c r="AB34" s="16">
         <f t="shared" si="13"/>
-        <v>980</v>
-      </c>
-      <c r="AB34" s="16">
-        <f t="shared" si="14"/>
         <v>4900</v>
       </c>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="25"/>
-      <c r="AJ34" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC34" s="16">
+        <f>[5]试炼!$D$21*4*INT((U34-$U$19)+1)</f>
+        <v>34078589.999999993</v>
+      </c>
+      <c r="AD34" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE34" s="79">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH34" s="1">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -6781,7 +7404,7 @@
         <v>68500</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1370000</v>
       </c>
       <c r="G35" s="16"/>
@@ -6832,43 +7455,48 @@
       </c>
       <c r="T35" s="32"/>
       <c r="U35" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F36/($U$3*A36+$AG$2),0)</f>
         <v>520</v>
       </c>
       <c r="V35" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>375813</v>
       </c>
       <c r="W35" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T48</f>
         <v>919</v>
       </c>
-      <c r="X35" s="33" t="e">
+      <c r="X35" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N48)</f>
-        <v>#REF!</v>
+        <v>43</v>
       </c>
       <c r="Y35" s="34">
         <v>0.16500000000000001</v>
       </c>
       <c r="Z35" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA35" s="16">
+        <f t="shared" si="12"/>
+        <v>1040</v>
+      </c>
+      <c r="AB35" s="16">
         <f t="shared" si="13"/>
-        <v>1040</v>
-      </c>
-      <c r="AB35" s="16">
-        <f t="shared" si="14"/>
         <v>5200</v>
       </c>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="25"/>
+      <c r="AC35" s="16">
+        <f>[5]试炼!$D$21*4*INT((U35-$U$19)+1)</f>
+        <v>37823489.999999993</v>
+      </c>
+      <c r="AD35" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE35" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -6889,7 +7517,7 @@
         <v>75000</v>
       </c>
       <c r="F36" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1500000</v>
       </c>
       <c r="G36" s="16"/>
@@ -6940,43 +7568,48 @@
       </c>
       <c r="T36" s="32"/>
       <c r="U36" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F37/($U$3*A37+$AG$2),0)</f>
         <v>549</v>
       </c>
       <c r="V36" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>485613</v>
       </c>
       <c r="W36" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T49</f>
         <v>1119</v>
       </c>
-      <c r="X36" s="33" t="e">
+      <c r="X36" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N49)</f>
-        <v>#REF!</v>
+        <v>43</v>
       </c>
       <c r="Y36" s="34">
         <v>0.158</v>
       </c>
       <c r="Z36" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA36" s="16">
+        <f t="shared" si="12"/>
+        <v>1098</v>
+      </c>
+      <c r="AB36" s="16">
         <f t="shared" si="13"/>
-        <v>1098</v>
-      </c>
-      <c r="AB36" s="16">
-        <f t="shared" si="14"/>
         <v>5490</v>
       </c>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="25"/>
+      <c r="AC36" s="16">
+        <f>[5]试炼!$D$21*4*INT((U36-$U$19)+1)</f>
+        <v>41443559.999999993</v>
+      </c>
+      <c r="AD36" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE36" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -6997,7 +7630,7 @@
         <v>81700</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1634000</v>
       </c>
       <c r="G37" s="16"/>
@@ -7031,60 +7664,65 @@
         <v>0.16869273454639308</v>
       </c>
       <c r="P37" s="28">
-        <f t="shared" ref="P37:Q54" si="16">H37/$M37</f>
+        <f t="shared" ref="P37:Q54" si="15">H37/$M37</f>
         <v>1.1872499677377727E-2</v>
       </c>
       <c r="Q37" s="29">
+        <f t="shared" si="15"/>
+        <v>7.1234998064266364E-2</v>
+      </c>
+      <c r="R37" s="30">
+        <f t="shared" ref="R37:S54" si="16">K37/$M37</f>
+        <v>1.548586914440573E-2</v>
+      </c>
+      <c r="S37" s="31">
         <f t="shared" si="16"/>
-        <v>7.1234998064266364E-2</v>
-      </c>
-      <c r="R37" s="30">
-        <f t="shared" ref="R37:S54" si="17">K37/$M37</f>
-        <v>1.548586914440573E-2</v>
-      </c>
-      <c r="S37" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T37" s="32"/>
       <c r="U37" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F38/($U$3*A38+$AG$2),0)</f>
         <v>578</v>
       </c>
       <c r="V37" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>601791</v>
       </c>
       <c r="W37" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T50</f>
         <v>1320</v>
       </c>
-      <c r="X37" s="33" t="e">
+      <c r="X37" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N50)</f>
-        <v>#REF!</v>
+        <v>44</v>
       </c>
       <c r="Y37" s="34">
         <v>0.151</v>
       </c>
       <c r="Z37" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA37" s="16">
+        <f t="shared" si="12"/>
+        <v>1156</v>
+      </c>
+      <c r="AB37" s="16">
         <f t="shared" si="13"/>
-        <v>1156</v>
-      </c>
-      <c r="AB37" s="16">
-        <f t="shared" si="14"/>
         <v>5780</v>
       </c>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="25"/>
+      <c r="AC37" s="16">
+        <f>[5]试炼!$D$21*4*INT((U37-$U$19)+1)</f>
+        <v>45063629.999999993</v>
+      </c>
+      <c r="AD37" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE37" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -7105,7 +7743,7 @@
         <v>88600</v>
       </c>
       <c r="F38" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1772000</v>
       </c>
       <c r="G38" s="16"/>
@@ -7139,60 +7777,65 @@
         <v>0.17052808853602791</v>
       </c>
       <c r="P38" s="28">
+        <f t="shared" si="15"/>
+        <v>1.1067003488511969E-2</v>
+      </c>
+      <c r="Q38" s="29">
+        <f t="shared" si="15"/>
+        <v>6.6402020931071809E-2</v>
+      </c>
+      <c r="R38" s="30">
         <f t="shared" si="16"/>
-        <v>1.1067003488511969E-2</v>
-      </c>
-      <c r="Q38" s="29">
+        <v>1.4435221941537351E-2</v>
+      </c>
+      <c r="S38" s="31">
         <f t="shared" si="16"/>
-        <v>6.6402020931071809E-2</v>
-      </c>
-      <c r="R38" s="30">
-        <f t="shared" si="17"/>
-        <v>1.4435221941537351E-2</v>
-      </c>
-      <c r="S38" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T38" s="32"/>
       <c r="U38" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F39/($U$3*A39+$AG$2),0)</f>
         <v>607</v>
       </c>
       <c r="V38" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>753541</v>
       </c>
       <c r="W38" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T51</f>
         <v>1570</v>
       </c>
-      <c r="X38" s="33" t="e">
+      <c r="X38" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N51)</f>
-        <v>#REF!</v>
+        <v>44</v>
       </c>
       <c r="Y38" s="34">
         <v>0.14399999999999999</v>
       </c>
       <c r="Z38" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA38" s="16">
+        <f t="shared" si="12"/>
+        <v>1214</v>
+      </c>
+      <c r="AB38" s="16">
         <f t="shared" si="13"/>
-        <v>1214</v>
-      </c>
-      <c r="AB38" s="16">
-        <f t="shared" si="14"/>
         <v>6070</v>
       </c>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="25"/>
+      <c r="AC38" s="16">
+        <f>[5]试炼!$D$21*4*INT((U38-$U$19)+1)</f>
+        <v>48683699.999999993</v>
+      </c>
+      <c r="AD38" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE38" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -7213,7 +7856,7 @@
         <v>95700</v>
       </c>
       <c r="F39" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1914000</v>
       </c>
       <c r="G39" s="16">
@@ -7249,60 +7892,65 @@
         <v>0.15680491551459294</v>
       </c>
       <c r="P39" s="28">
+        <f t="shared" si="15"/>
+        <v>2.0890937019969278E-2</v>
+      </c>
+      <c r="Q39" s="29">
+        <f t="shared" si="15"/>
+        <v>0.12534562211981568</v>
+      </c>
+      <c r="R39" s="30">
         <f t="shared" si="16"/>
-        <v>2.0890937019969278E-2</v>
-      </c>
-      <c r="Q39" s="29">
+        <v>1.2288786482334869E-2</v>
+      </c>
+      <c r="S39" s="31">
         <f t="shared" si="16"/>
-        <v>0.12534562211981568</v>
-      </c>
-      <c r="R39" s="30">
-        <f t="shared" si="17"/>
-        <v>1.2288786482334869E-2</v>
-      </c>
-      <c r="S39" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T39" s="32"/>
       <c r="U39" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F40/($U$3*A40+$AG$2),0)</f>
         <v>635</v>
       </c>
       <c r="V39" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>944676</v>
       </c>
       <c r="W39" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T52</f>
         <v>1871</v>
       </c>
-      <c r="X39" s="33" t="e">
+      <c r="X39" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N52)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
       <c r="Y39" s="34">
         <v>0.13700000000000001</v>
       </c>
       <c r="Z39" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA39" s="16">
+        <f t="shared" si="12"/>
+        <v>1270</v>
+      </c>
+      <c r="AB39" s="16">
         <f t="shared" si="13"/>
-        <v>1270</v>
-      </c>
-      <c r="AB39" s="16">
-        <f t="shared" si="14"/>
         <v>6350</v>
       </c>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="25"/>
+      <c r="AC39" s="16">
+        <f>[5]试炼!$D$21*4*INT((U39-$U$19)+1)</f>
+        <v>52178939.999999993</v>
+      </c>
+      <c r="AD39" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE39" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -7323,7 +7971,7 @@
         <v>103000</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2060000</v>
       </c>
       <c r="G40" s="16"/>
@@ -7357,60 +8005,65 @@
         <v>0.155076691446316</v>
       </c>
       <c r="P40" s="28">
+        <f t="shared" si="15"/>
+        <v>1.9196386562529408E-2</v>
+      </c>
+      <c r="Q40" s="29">
+        <f t="shared" si="15"/>
+        <v>0.11517831937517643</v>
+      </c>
+      <c r="R40" s="30">
         <f t="shared" si="16"/>
-        <v>1.9196386562529408E-2</v>
-      </c>
-      <c r="Q40" s="29">
+        <v>1.1291992095605533E-2</v>
+      </c>
+      <c r="S40" s="31">
         <f t="shared" si="16"/>
-        <v>0.11517831937517643</v>
-      </c>
-      <c r="R40" s="30">
-        <f t="shared" si="17"/>
-        <v>1.1291992095605533E-2</v>
-      </c>
-      <c r="S40" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T40" s="32"/>
       <c r="U40" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F41/($U$3*A41+$AG$2),0)</f>
         <v>663</v>
       </c>
       <c r="V40" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1176726</v>
       </c>
       <c r="W40" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T53</f>
         <v>2221</v>
       </c>
-      <c r="X40" s="33" t="e">
+      <c r="X40" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N53)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
       <c r="Y40" s="34">
         <v>0.13</v>
       </c>
       <c r="Z40" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA40" s="16">
+        <f t="shared" si="12"/>
+        <v>1326</v>
+      </c>
+      <c r="AB40" s="16">
         <f t="shared" si="13"/>
-        <v>1326</v>
-      </c>
-      <c r="AB40" s="16">
-        <f t="shared" si="14"/>
         <v>6630</v>
       </c>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="25"/>
+      <c r="AC40" s="16">
+        <f>[5]试炼!$D$21*4*INT((U40-$U$19)+1)</f>
+        <v>55674179.999999993</v>
+      </c>
+      <c r="AD40" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE40" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -7431,7 +8084,7 @@
         <v>110500</v>
       </c>
       <c r="F41" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2210000</v>
       </c>
       <c r="G41" s="16"/>
@@ -7465,60 +8118,65 @@
         <v>0.15114469882196044</v>
       </c>
       <c r="P41" s="28">
+        <f t="shared" si="15"/>
+        <v>1.7439772940995434E-2</v>
+      </c>
+      <c r="Q41" s="29">
+        <f t="shared" si="15"/>
+        <v>0.10463863764597262</v>
+      </c>
+      <c r="R41" s="30">
         <f t="shared" si="16"/>
-        <v>1.7439772940995434E-2</v>
-      </c>
-      <c r="Q41" s="29">
+        <v>1.0258689965291432E-2</v>
+      </c>
+      <c r="S41" s="31">
         <f t="shared" si="16"/>
-        <v>0.10463863764597262</v>
-      </c>
-      <c r="R41" s="30">
-        <f t="shared" si="17"/>
-        <v>1.0258689965291432E-2</v>
-      </c>
-      <c r="S41" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T41" s="32"/>
       <c r="U41" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F42/($U$3*A42+$AG$2),0)</f>
         <v>690</v>
       </c>
       <c r="V41" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1436166</v>
       </c>
       <c r="W41" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T54</f>
         <v>2597</v>
       </c>
-      <c r="X41" s="33" t="e">
+      <c r="X41" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N54)</f>
-        <v>#REF!</v>
+        <v>46</v>
       </c>
       <c r="Y41" s="34">
         <v>0.123</v>
       </c>
       <c r="Z41" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA41" s="16">
+        <f t="shared" si="12"/>
+        <v>1380</v>
+      </c>
+      <c r="AB41" s="16">
         <f t="shared" si="13"/>
-        <v>1380</v>
-      </c>
-      <c r="AB41" s="16">
-        <f t="shared" si="14"/>
         <v>6900</v>
       </c>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="25"/>
+      <c r="AC41" s="16">
+        <f>[5]试炼!$D$21*4*INT((U41-$U$19)+1)</f>
+        <v>59044589.999999993</v>
+      </c>
+      <c r="AD41" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE41" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -7539,7 +8197,7 @@
         <v>118200</v>
       </c>
       <c r="F42" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2364000</v>
       </c>
       <c r="G42" s="16"/>
@@ -7573,60 +8231,65 @@
         <v>0.14558219019906701</v>
       </c>
       <c r="P42" s="28">
+        <f t="shared" si="15"/>
+        <v>1.5703662648376519E-2</v>
+      </c>
+      <c r="Q42" s="29">
+        <f t="shared" si="15"/>
+        <v>9.4221975890259116E-2</v>
+      </c>
+      <c r="R42" s="30">
         <f t="shared" si="16"/>
-        <v>1.5703662648376519E-2</v>
-      </c>
-      <c r="Q42" s="29">
+        <v>9.2374486166920695E-3</v>
+      </c>
+      <c r="S42" s="31">
         <f t="shared" si="16"/>
-        <v>9.4221975890259116E-2</v>
-      </c>
-      <c r="R42" s="30">
-        <f t="shared" si="17"/>
-        <v>9.2374486166920695E-3</v>
-      </c>
-      <c r="S42" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T42" s="32"/>
       <c r="U42" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F43/($U$3*A43+$AG$2),0)</f>
         <v>718</v>
       </c>
       <c r="V42" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1741316</v>
       </c>
       <c r="W42" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T55</f>
         <v>3022</v>
       </c>
-      <c r="X42" s="33" t="e">
+      <c r="X42" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N55)</f>
-        <v>#REF!</v>
+        <v>46</v>
       </c>
       <c r="Y42" s="34">
         <v>0.11600000000000001</v>
       </c>
       <c r="Z42" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA42" s="16">
+        <f t="shared" si="12"/>
+        <v>1436</v>
+      </c>
+      <c r="AB42" s="16">
         <f t="shared" si="13"/>
-        <v>1436</v>
-      </c>
-      <c r="AB42" s="16">
-        <f t="shared" si="14"/>
         <v>7180</v>
       </c>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="25"/>
+      <c r="AC42" s="16">
+        <f>[5]试炼!$E$21*4*INT((U42-$U$19)+1)</f>
+        <v>178293375</v>
+      </c>
+      <c r="AD42" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE42" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -7647,7 +8310,7 @@
         <v>126100</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2522000</v>
       </c>
       <c r="G43" s="16"/>
@@ -7681,60 +8344,65 @@
         <v>0.13984501712020184</v>
       </c>
       <c r="P43" s="28">
+        <f t="shared" si="15"/>
+        <v>1.4139761842050543E-2</v>
+      </c>
+      <c r="Q43" s="29">
+        <f t="shared" si="15"/>
+        <v>8.483857105230326E-2</v>
+      </c>
+      <c r="R43" s="30">
         <f t="shared" si="16"/>
-        <v>1.4139761842050543E-2</v>
-      </c>
-      <c r="Q43" s="29">
+        <v>8.3175069659120835E-3</v>
+      </c>
+      <c r="S43" s="31">
         <f t="shared" si="16"/>
-        <v>8.483857105230326E-2</v>
-      </c>
-      <c r="R43" s="30">
-        <f t="shared" si="17"/>
-        <v>8.3175069659120835E-3</v>
-      </c>
-      <c r="S43" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T43" s="32"/>
       <c r="U43" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F44/($U$3*A44+$AG$2),0)</f>
         <v>745</v>
       </c>
       <c r="V43" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2077311</v>
       </c>
       <c r="W43" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T56</f>
         <v>3473</v>
       </c>
-      <c r="X43" s="33" t="e">
+      <c r="X43" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N56)</f>
-        <v>#REF!</v>
+        <v>47</v>
       </c>
       <c r="Y43" s="34">
         <v>0.109</v>
       </c>
       <c r="Z43" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA43" s="16">
+        <f t="shared" si="12"/>
+        <v>1490</v>
+      </c>
+      <c r="AB43" s="16">
         <f t="shared" si="13"/>
-        <v>1490</v>
-      </c>
-      <c r="AB43" s="16">
-        <f t="shared" si="14"/>
         <v>7450</v>
       </c>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="25"/>
+      <c r="AC43" s="16">
+        <f>[5]试炼!$E$21*4*INT((U43-$U$19)+1)</f>
+        <v>187902000</v>
+      </c>
+      <c r="AD43" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE43" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>40</v>
       </c>
@@ -7755,7 +8423,7 @@
         <v>134200</v>
       </c>
       <c r="F44" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2684000</v>
       </c>
       <c r="G44" s="16"/>
@@ -7792,60 +8460,65 @@
         <v>0.13010021691448237</v>
       </c>
       <c r="P44" s="28">
+        <f t="shared" si="15"/>
+        <v>2.3993892463736503E-2</v>
+      </c>
+      <c r="Q44" s="29">
+        <f t="shared" si="15"/>
+        <v>7.4162940342458281E-2</v>
+      </c>
+      <c r="R44" s="30">
         <f t="shared" si="16"/>
-        <v>2.3993892463736503E-2</v>
-      </c>
-      <c r="Q44" s="29">
+        <v>1.9389004011100205E-2</v>
+      </c>
+      <c r="S44" s="31">
         <f t="shared" si="16"/>
-        <v>7.4162940342458281E-2</v>
-      </c>
-      <c r="R44" s="30">
-        <f t="shared" si="17"/>
-        <v>1.9389004011100205E-2</v>
-      </c>
-      <c r="S44" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T44" s="32"/>
       <c r="U44" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F45/($U$3*A45+$AG$2),0)</f>
         <v>771</v>
       </c>
       <c r="V44" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2463582</v>
       </c>
       <c r="W44" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T57</f>
         <v>3974</v>
       </c>
-      <c r="X44" s="33" t="e">
+      <c r="X44" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N57)</f>
-        <v>#REF!</v>
+        <v>48</v>
       </c>
       <c r="Y44" s="34">
         <v>0.10199999999999999</v>
       </c>
       <c r="Z44" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA44" s="16">
+        <f t="shared" si="12"/>
+        <v>1542</v>
+      </c>
+      <c r="AB44" s="16">
         <f t="shared" si="13"/>
-        <v>1542</v>
-      </c>
-      <c r="AB44" s="16">
-        <f t="shared" si="14"/>
         <v>7710</v>
       </c>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
-      <c r="AE44" s="16"/>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="25"/>
+      <c r="AC44" s="16">
+        <f>[5]试炼!$E$21*4*INT((U44-$U$19)+1)</f>
+        <v>197154750</v>
+      </c>
+      <c r="AD44" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE44" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
         <v>41</v>
       </c>
@@ -7866,7 +8539,7 @@
         <v>142500</v>
       </c>
       <c r="F45" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2850000</v>
       </c>
       <c r="G45" s="16"/>
@@ -7900,60 +8573,65 @@
         <v>0.12486719169304578</v>
       </c>
       <c r="P45" s="28">
+        <f t="shared" si="15"/>
+        <v>1.1172327677798832E-2</v>
+      </c>
+      <c r="Q45" s="29">
+        <f t="shared" si="15"/>
+        <v>6.7033966066792988E-2</v>
+      </c>
+      <c r="R45" s="30">
         <f t="shared" si="16"/>
-        <v>1.1172327677798832E-2</v>
-      </c>
-      <c r="Q45" s="29">
+        <v>1.7525219886743267E-2</v>
+      </c>
+      <c r="S45" s="31">
         <f t="shared" si="16"/>
-        <v>6.7033966066792988E-2</v>
-      </c>
-      <c r="R45" s="30">
-        <f t="shared" si="17"/>
-        <v>1.7525219886743267E-2</v>
-      </c>
-      <c r="S45" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T45" s="32"/>
       <c r="U45" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F46/($U$3*A46+$AG$2),0)</f>
         <v>809</v>
       </c>
       <c r="V45" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2908532</v>
       </c>
       <c r="W45" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T58</f>
         <v>4524</v>
       </c>
-      <c r="X45" s="33" t="e">
+      <c r="X45" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N58)</f>
-        <v>#REF!</v>
+        <v>48</v>
       </c>
       <c r="Y45" s="34">
         <v>9.4999999999999904E-2</v>
       </c>
       <c r="Z45" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA45" s="16">
+        <f t="shared" si="12"/>
+        <v>1618</v>
+      </c>
+      <c r="AB45" s="16">
         <f t="shared" si="13"/>
-        <v>1618</v>
-      </c>
-      <c r="AB45" s="16">
-        <f t="shared" si="14"/>
         <v>8090</v>
       </c>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="25"/>
+      <c r="AC45" s="16">
+        <f>[5]试炼!$E$21*4*INT((U45-$U$19)+1)</f>
+        <v>210678000</v>
+      </c>
+      <c r="AD45" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE45" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A46" s="15">
         <v>42</v>
       </c>
@@ -7974,7 +8652,7 @@
         <v>153000</v>
       </c>
       <c r="F46" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3060000</v>
       </c>
       <c r="G46" s="16"/>
@@ -8008,60 +8686,65 @@
         <v>0.12434348872883164</v>
       </c>
       <c r="P46" s="28">
+        <f t="shared" si="15"/>
+        <v>1.0361957394069303E-2</v>
+      </c>
+      <c r="Q46" s="29">
+        <f t="shared" si="15"/>
+        <v>6.2171744364415818E-2</v>
+      </c>
+      <c r="R46" s="30">
         <f t="shared" si="16"/>
-        <v>1.0361957394069303E-2</v>
-      </c>
-      <c r="Q46" s="29">
+        <v>1.6254050814226359E-2</v>
+      </c>
+      <c r="S46" s="31">
         <f t="shared" si="16"/>
-        <v>6.2171744364415818E-2</v>
-      </c>
-      <c r="R46" s="30">
-        <f t="shared" si="17"/>
-        <v>1.6254050814226359E-2</v>
-      </c>
-      <c r="S46" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T46" s="32"/>
       <c r="U46" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F47/($U$3*A47+$AG$2),0)</f>
         <v>845</v>
       </c>
       <c r="V46" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3416377</v>
       </c>
       <c r="W46" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T59</f>
         <v>5125</v>
       </c>
-      <c r="X46" s="33" t="e">
+      <c r="X46" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N59)</f>
-        <v>#REF!</v>
+        <v>49</v>
       </c>
       <c r="Y46" s="34">
         <v>8.7999999999999898E-2</v>
       </c>
       <c r="Z46" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA46" s="16">
+        <f t="shared" si="12"/>
+        <v>1690</v>
+      </c>
+      <c r="AB46" s="16">
         <f t="shared" si="13"/>
-        <v>1690</v>
-      </c>
-      <c r="AB46" s="16">
-        <f t="shared" si="14"/>
         <v>8450</v>
       </c>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="25"/>
+      <c r="AC46" s="16">
+        <f>[5]试炼!$E$21*4*INT((U46-$U$19)+1)</f>
+        <v>223489500</v>
+      </c>
+      <c r="AD46" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE46" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
         <v>43</v>
       </c>
@@ -8082,7 +8765,7 @@
         <v>163750</v>
       </c>
       <c r="F47" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3275000</v>
       </c>
       <c r="G47" s="16"/>
@@ -8116,60 +8799,65 @@
         <v>0.12136709376766076</v>
       </c>
       <c r="P47" s="28">
+        <f t="shared" si="15"/>
+        <v>9.449956919314044E-3</v>
+      </c>
+      <c r="Q47" s="29">
+        <f t="shared" si="15"/>
+        <v>5.6699741515884264E-2</v>
+      </c>
+      <c r="R47" s="30">
         <f t="shared" si="16"/>
-        <v>9.449956919314044E-3</v>
-      </c>
-      <c r="Q47" s="29">
+        <v>1.4823461834218109E-2</v>
+      </c>
+      <c r="S47" s="31">
         <f t="shared" si="16"/>
-        <v>5.6699741515884264E-2</v>
-      </c>
-      <c r="R47" s="30">
-        <f t="shared" si="17"/>
-        <v>1.4823461834218109E-2</v>
-      </c>
-      <c r="S47" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T47" s="32"/>
       <c r="U47" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F48/($U$3*A48+$AG$2),0)</f>
         <v>882</v>
       </c>
       <c r="V47" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4033777</v>
       </c>
       <c r="W47" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T60</f>
         <v>5825</v>
       </c>
-      <c r="X47" s="33" t="e">
+      <c r="X47" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N60)</f>
-        <v>#REF!</v>
+        <v>49</v>
       </c>
       <c r="Y47" s="34">
         <v>8.0999999999999905E-2</v>
       </c>
       <c r="Z47" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA47" s="16">
+        <f t="shared" si="12"/>
+        <v>1764</v>
+      </c>
+      <c r="AB47" s="16">
         <f t="shared" si="13"/>
-        <v>1764</v>
-      </c>
-      <c r="AB47" s="16">
-        <f t="shared" si="14"/>
         <v>8820</v>
       </c>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="16"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="25"/>
+      <c r="AC47" s="16">
+        <f>[5]试炼!$E$21*4*INT((U47-$U$19)+1)</f>
+        <v>236656875</v>
+      </c>
+      <c r="AD47" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE47" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A48" s="15">
         <v>44</v>
       </c>
@@ -8190,7 +8878,7 @@
         <v>174750</v>
       </c>
       <c r="F48" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3495000</v>
       </c>
       <c r="G48" s="16"/>
@@ -8224,60 +8912,65 @@
         <v>0.11646409023884302</v>
       </c>
       <c r="P48" s="28">
+        <f t="shared" si="15"/>
+        <v>8.4973799745078609E-3</v>
+      </c>
+      <c r="Q48" s="29">
+        <f t="shared" si="15"/>
+        <v>5.0984279847047162E-2</v>
+      </c>
+      <c r="R48" s="30">
         <f t="shared" si="16"/>
-        <v>8.4973799745078609E-3</v>
-      </c>
-      <c r="Q48" s="29">
+        <v>1.3329223489424094E-2</v>
+      </c>
+      <c r="S48" s="31">
         <f t="shared" si="16"/>
-        <v>5.0984279847047162E-2</v>
-      </c>
-      <c r="R48" s="30">
-        <f t="shared" si="17"/>
-        <v>1.3329223489424094E-2</v>
-      </c>
-      <c r="S48" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T48" s="32"/>
       <c r="U48" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F49/($U$3*A49+$AG$2),0)</f>
         <v>918</v>
       </c>
       <c r="V48" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4860895</v>
       </c>
       <c r="W48" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T61</f>
         <v>6726</v>
       </c>
-      <c r="X48" s="33" t="e">
+      <c r="X48" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N61)</f>
-        <v>#REF!</v>
+        <v>50</v>
       </c>
       <c r="Y48" s="34">
         <v>7.3999999999999899E-2</v>
       </c>
       <c r="Z48" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA48" s="16">
+        <f t="shared" si="12"/>
+        <v>1836</v>
+      </c>
+      <c r="AB48" s="16">
         <f t="shared" si="13"/>
-        <v>1836</v>
-      </c>
-      <c r="AB48" s="16">
-        <f t="shared" si="14"/>
         <v>9180</v>
       </c>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="25"/>
+      <c r="AC48" s="16">
+        <f>[5]试炼!$E$21*4*INT((U48-$U$19)+1)</f>
+        <v>249468375</v>
+      </c>
+      <c r="AD48" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE48" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" s="15">
         <v>45</v>
       </c>
@@ -8298,7 +8991,7 @@
         <v>186000</v>
       </c>
       <c r="F49" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3720000</v>
       </c>
       <c r="G49" s="16"/>
@@ -8335,60 +9028,65 @@
         <v>0.10894953030158812</v>
       </c>
       <c r="P49" s="28">
+        <f t="shared" si="15"/>
+        <v>7.4683145771249921E-3</v>
+      </c>
+      <c r="Q49" s="29">
+        <f t="shared" si="15"/>
+        <v>4.4809887462749949E-2</v>
+      </c>
+      <c r="R49" s="30">
         <f t="shared" si="16"/>
-        <v>7.4683145771249921E-3</v>
-      </c>
-      <c r="Q49" s="29">
+        <v>2.3430006516470564E-2</v>
+      </c>
+      <c r="S49" s="31">
         <f t="shared" si="16"/>
-        <v>4.4809887462749949E-2</v>
-      </c>
-      <c r="R49" s="30">
-        <f t="shared" si="17"/>
-        <v>2.3430006516470564E-2</v>
-      </c>
-      <c r="S49" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T49" s="32"/>
       <c r="U49" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F50/($U$3*A50+$AG$2),0)</f>
         <v>953</v>
       </c>
       <c r="V49" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5909195</v>
       </c>
       <c r="W49" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T62</f>
         <v>7826</v>
       </c>
-      <c r="X49" s="33" t="e">
+      <c r="X49" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N62)</f>
-        <v>#REF!</v>
+        <v>50</v>
       </c>
       <c r="Y49" s="34">
         <v>6.6999999999999907E-2</v>
       </c>
       <c r="Z49" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA49" s="16">
+        <f t="shared" si="12"/>
+        <v>1906</v>
+      </c>
+      <c r="AB49" s="16">
         <f t="shared" si="13"/>
-        <v>1906</v>
-      </c>
-      <c r="AB49" s="16">
-        <f t="shared" si="14"/>
         <v>9530</v>
       </c>
-      <c r="AC49" s="16"/>
-      <c r="AD49" s="16"/>
-      <c r="AE49" s="16"/>
-      <c r="AF49" s="16"/>
-      <c r="AG49" s="25"/>
+      <c r="AC49" s="16">
+        <f>[5]试炼!$F$21*4*INT((U49-$U$19)+1)</f>
+        <v>628617599.99999988</v>
+      </c>
+      <c r="AD49" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE49" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" s="15">
         <v>46</v>
       </c>
@@ -8409,7 +9107,7 @@
         <v>197500</v>
       </c>
       <c r="F50" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3950000</v>
       </c>
       <c r="G50" s="16"/>
@@ -8443,60 +9141,65 @@
         <v>0.10296043842900617</v>
       </c>
       <c r="P50" s="28">
+        <f t="shared" si="15"/>
+        <v>6.6468131137712846E-3</v>
+      </c>
+      <c r="Q50" s="29">
+        <f t="shared" si="15"/>
+        <v>3.9880878682627706E-2</v>
+      </c>
+      <c r="R50" s="30">
         <f t="shared" si="16"/>
-        <v>6.6468131137712846E-3</v>
-      </c>
-      <c r="Q50" s="29">
+        <v>2.0852747023596185E-2</v>
+      </c>
+      <c r="S50" s="31">
         <f t="shared" si="16"/>
-        <v>3.9880878682627706E-2</v>
-      </c>
-      <c r="R50" s="30">
-        <f t="shared" si="17"/>
-        <v>2.0852747023596185E-2</v>
-      </c>
-      <c r="S50" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T50" s="32"/>
       <c r="U50" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F51/($U$3*A51+$AG$2),0)</f>
         <v>988</v>
       </c>
       <c r="V50" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7193595</v>
       </c>
       <c r="W50" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T63</f>
         <v>9126</v>
       </c>
-      <c r="X50" s="33" t="e">
+      <c r="X50" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N63)</f>
-        <v>#REF!</v>
+        <v>50</v>
       </c>
       <c r="Y50" s="34">
         <v>0.06</v>
       </c>
       <c r="Z50" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA50" s="16">
+        <f t="shared" si="12"/>
+        <v>1976</v>
+      </c>
+      <c r="AB50" s="16">
         <f t="shared" si="13"/>
-        <v>1976</v>
-      </c>
-      <c r="AB50" s="16">
-        <f t="shared" si="14"/>
         <v>9880</v>
       </c>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
-      <c r="AE50" s="16"/>
-      <c r="AF50" s="16"/>
-      <c r="AG50" s="25"/>
+      <c r="AC50" s="16">
+        <f>[5]试炼!$F$21*4*INT((U50-$U$19)+1)</f>
+        <v>658511099.99999988</v>
+      </c>
+      <c r="AD50" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE50" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" s="15">
         <v>47</v>
       </c>
@@ -8517,7 +9220,7 @@
         <v>209250</v>
       </c>
       <c r="F51" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4185000</v>
       </c>
       <c r="G51" s="16"/>
@@ -8551,60 +9254,65 @@
         <v>9.6430237849732425E-2</v>
       </c>
       <c r="P51" s="28">
+        <f t="shared" si="15"/>
+        <v>5.8756775750733016E-3</v>
+      </c>
+      <c r="Q51" s="29">
+        <f t="shared" si="15"/>
+        <v>3.5254065450439812E-2</v>
+      </c>
+      <c r="R51" s="30">
         <f t="shared" si="16"/>
-        <v>5.8756775750733016E-3</v>
-      </c>
-      <c r="Q51" s="29">
+        <v>1.8433498274739772E-2</v>
+      </c>
+      <c r="S51" s="31">
         <f t="shared" si="16"/>
-        <v>3.5254065450439812E-2</v>
-      </c>
-      <c r="R51" s="30">
-        <f t="shared" si="17"/>
-        <v>1.8433498274739772E-2</v>
-      </c>
-      <c r="S51" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T51" s="32"/>
       <c r="U51" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F52/($U$3*A52+$AG$2),0)</f>
         <v>1023</v>
       </c>
       <c r="V51" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8729118</v>
       </c>
       <c r="W51" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T64</f>
         <v>10627</v>
       </c>
-      <c r="X51" s="33" t="e">
+      <c r="X51" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N64)</f>
-        <v>#REF!</v>
+        <v>51</v>
       </c>
       <c r="Y51" s="34">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="Z51" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA51" s="16">
+        <f t="shared" si="12"/>
+        <v>2046</v>
+      </c>
+      <c r="AB51" s="16">
         <f t="shared" si="13"/>
-        <v>2046</v>
-      </c>
-      <c r="AB51" s="16">
-        <f t="shared" si="14"/>
         <v>10230</v>
       </c>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16"/>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="25"/>
+      <c r="AC51" s="16">
+        <f>[5]试炼!$F$21*4*INT((U51-$U$19)+1)</f>
+        <v>688404599.99999988</v>
+      </c>
+      <c r="AD51" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE51" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" s="15">
         <v>48</v>
       </c>
@@ -8625,7 +9333,7 @@
         <v>221250</v>
       </c>
       <c r="F52" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4425000</v>
       </c>
       <c r="G52" s="16"/>
@@ -8659,60 +9367,65 @@
         <v>8.9739754711337119E-2</v>
       </c>
       <c r="P52" s="28">
+        <f t="shared" si="15"/>
+        <v>5.1714434918397664E-3</v>
+      </c>
+      <c r="Q52" s="29">
+        <f t="shared" si="15"/>
+        <v>3.1028660951038598E-2</v>
+      </c>
+      <c r="R52" s="30">
         <f t="shared" si="16"/>
-        <v>5.1714434918397664E-3</v>
-      </c>
-      <c r="Q52" s="29">
+        <v>1.6224136444987502E-2</v>
+      </c>
+      <c r="S52" s="31">
         <f t="shared" si="16"/>
-        <v>3.1028660951038598E-2</v>
-      </c>
-      <c r="R52" s="30">
-        <f t="shared" si="17"/>
-        <v>1.6224136444987502E-2</v>
-      </c>
-      <c r="S52" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T52" s="32"/>
       <c r="U52" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F53/($U$3*A53+$AG$2),0)</f>
         <v>1058</v>
       </c>
       <c r="V52" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10527718</v>
       </c>
       <c r="W52" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T65</f>
         <v>12327</v>
       </c>
-      <c r="X52" s="33" t="e">
+      <c r="X52" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N65)</f>
-        <v>#REF!</v>
+        <v>51</v>
       </c>
       <c r="Y52" s="34">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="Z52" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA52" s="16">
+        <f t="shared" si="12"/>
+        <v>2116</v>
+      </c>
+      <c r="AB52" s="16">
         <f t="shared" si="13"/>
-        <v>2116</v>
-      </c>
-      <c r="AB52" s="16">
-        <f t="shared" si="14"/>
         <v>10580</v>
       </c>
-      <c r="AC52" s="16"/>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="16"/>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="25"/>
+      <c r="AC52" s="16">
+        <f>[5]试炼!$F$21*4*INT((U52-$U$19)+1)</f>
+        <v>718298099.99999988</v>
+      </c>
+      <c r="AD52" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE52" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" s="15">
         <v>49</v>
       </c>
@@ -8733,7 +9446,7 @@
         <v>233500</v>
       </c>
       <c r="F53" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4670000</v>
       </c>
       <c r="G53" s="16"/>
@@ -8767,60 +9480,65 @@
         <v>8.3655400654733383E-2</v>
       </c>
       <c r="P53" s="28">
+        <f t="shared" si="15"/>
+        <v>4.5679073162648845E-3</v>
+      </c>
+      <c r="Q53" s="29">
+        <f t="shared" si="15"/>
+        <v>2.7407443897589309E-2</v>
+      </c>
+      <c r="R53" s="30">
         <f t="shared" si="16"/>
-        <v>4.5679073162648845E-3</v>
-      </c>
-      <c r="Q53" s="29">
+        <v>1.433068961965454E-2</v>
+      </c>
+      <c r="S53" s="31">
         <f t="shared" si="16"/>
-        <v>2.7407443897589309E-2</v>
-      </c>
-      <c r="R53" s="30">
-        <f t="shared" si="17"/>
-        <v>1.433068961965454E-2</v>
-      </c>
-      <c r="S53" s="31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T53" s="32"/>
       <c r="U53" s="15">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F54/($U$3*A54+$AG$2),0)</f>
         <v>1092</v>
       </c>
       <c r="V53" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12603610</v>
       </c>
       <c r="W53" s="33">
         <f>'[2]宠物经验(副本关联表)'!$T66</f>
         <v>14228</v>
       </c>
-      <c r="X53" s="33" t="e">
+      <c r="X53" s="33">
         <f>SUM('[2]宠物经验(副本关联表)'!$N$18:'[2]宠物经验(副本关联表)'!$N66)</f>
-        <v>#REF!</v>
+        <v>52</v>
       </c>
       <c r="Y53" s="34">
         <v>3.9E-2</v>
       </c>
       <c r="Z53" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2074000</v>
       </c>
       <c r="AA53" s="16">
+        <f t="shared" si="12"/>
+        <v>2184</v>
+      </c>
+      <c r="AB53" s="16">
         <f t="shared" si="13"/>
-        <v>2184</v>
-      </c>
-      <c r="AB53" s="16">
-        <f t="shared" si="14"/>
         <v>10920</v>
       </c>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AE53" s="16"/>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="25"/>
+      <c r="AC53" s="16">
+        <f>[5]试炼!$F$21*4*INT((U53-$U$19)+1)</f>
+        <v>747337499.99999988</v>
+      </c>
+      <c r="AD53" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AE53" s="79">
+        <v>1.4E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37">
         <v>50</v>
       </c>
@@ -8841,7 +9559,7 @@
         <v>246000</v>
       </c>
       <c r="F54" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4920000</v>
       </c>
       <c r="G54" s="38">
@@ -8877,24 +9595,24 @@
         <v>7.5693181075166246E-2</v>
       </c>
       <c r="P54" s="43">
+        <f t="shared" si="15"/>
+        <v>7.6154724862209948E-3</v>
+      </c>
+      <c r="Q54" s="44">
+        <f t="shared" si="15"/>
+        <v>4.5692834917325967E-2</v>
+      </c>
+      <c r="R54" s="45">
         <f t="shared" si="16"/>
-        <v>7.6154724862209948E-3</v>
-      </c>
-      <c r="Q54" s="44">
+        <v>1.2307834321165244E-2</v>
+      </c>
+      <c r="S54" s="46">
         <f t="shared" si="16"/>
-        <v>4.5692834917325967E-2</v>
-      </c>
-      <c r="R54" s="45">
-        <f t="shared" si="17"/>
-        <v>1.2307834321165244E-2</v>
-      </c>
-      <c r="S54" s="46">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T54" s="32"/>
       <c r="U54" s="37">
-        <f t="shared" si="6"/>
+        <f>ROUNDDOWN(F55/($U$3*A55+$AG$2),0)</f>
         <v>0</v>
       </c>
       <c r="V54" s="47"/>
@@ -8909,17 +9627,15 @@
       <c r="AB54" s="38"/>
       <c r="AC54" s="38"/>
       <c r="AD54" s="38"/>
-      <c r="AE54" s="38"/>
-      <c r="AF54" s="38"/>
-      <c r="AG54" s="40"/>
+      <c r="AE54" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="U2:AG2"/>
+    <mergeCell ref="U2:AE2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8927,57 +9643,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N52"/>
+  <dimension ref="A2:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="13" max="17" width="9" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="F2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="50" t="s">
+      <c r="N2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="O2" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
         <v>42</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
-        <v>44</v>
       </c>
       <c r="B3" s="52">
         <f>[1]强化消耗石头!B8</f>
@@ -9016,18 +9762,30 @@
         <v>2</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L3" s="1">
+        <f>H3*30</f>
+        <v>30</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>70</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f>ROUNDDOWN(SUM(D3),0)</f>
         <v>1</v>
       </c>
+      <c r="R3">
+        <f>O3</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+    <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
       <c r="B4" s="52">
         <f>[1]强化消耗石头!B9</f>
         <v>2</v>
@@ -9067,18 +9825,41 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L52" si="0">H4*30</f>
+        <v>90</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>105</v>
       </c>
-      <c r="N4" s="1">
-        <f>ROUNDDOWN(SUM($D4:D$8),0)</f>
-        <v>13</v>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R15" si="1">O4</f>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T4">
+        <f>'[2]宠物经验(副本关联表)'!$U18</f>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f>S4*T4</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="V4" s="57">
+        <f>U4/L4</f>
+        <v>2.5555555555555553E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
       <c r="B5" s="52">
         <f>[1]强化消耗石头!B10</f>
         <v>3</v>
@@ -9118,18 +9899,41 @@
       <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>140</v>
       </c>
-      <c r="N5" s="1">
-        <f>ROUNDDOWN(SUM($D5:D$8),0)</f>
-        <v>11</v>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T5">
+        <f>'[2]宠物经验(副本关联表)'!$U19</f>
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U52" si="2">S5*T5</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="V5" s="57">
+        <f t="shared" ref="V5:V52" si="3">U5/L5</f>
+        <v>2.3E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+    <row r="6" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
       <c r="B6" s="52">
         <f>[1]强化消耗石头!B11</f>
         <v>4</v>
@@ -9169,18 +9973,41 @@
       <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>175</v>
       </c>
-      <c r="N6" s="1">
-        <f>ROUNDDOWN(SUM($D6:D$8),0)</f>
-        <v>9</v>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T6">
+        <f>'[2]宠物经验(副本关联表)'!$U20</f>
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="V6" s="57">
+        <f t="shared" si="3"/>
+        <v>3.2857142857142855E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
       <c r="B7" s="52">
         <f>[1]强化消耗石头!B12</f>
         <v>5</v>
@@ -9220,18 +10047,41 @@
       <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>210</v>
       </c>
-      <c r="N7" s="1">
-        <f>ROUNDDOWN(SUM($D7:D$8),0)</f>
-        <v>7</v>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T7">
+        <f>'[2]宠物经验(副本关联表)'!$U21</f>
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="V7" s="57">
+        <f t="shared" si="3"/>
+        <v>3.0666666666666663E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
       <c r="B8" s="52">
         <f>[1]强化消耗石头!B13</f>
         <v>6</v>
@@ -9271,18 +10121,42 @@
       <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>367.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <f>ROUNDDOWN(SUM($D$8:D8),0)</f>
         <v>4</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T8">
+        <f>'[2]宠物经验(副本关联表)'!$U22</f>
+        <v>12</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+      <c r="V8" s="57">
+        <f t="shared" si="3"/>
+        <v>2.875E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
       <c r="B9" s="52">
         <f>[1]强化消耗石头!B14</f>
         <v>7</v>
@@ -9322,18 +10196,42 @@
       <c r="K9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>700</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <f>ROUNDDOWN(SUM($D$8:D9),0)</f>
         <v>8</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T9">
+        <f>'[2]宠物经验(副本关联表)'!$U23</f>
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="V9" s="57">
+        <f t="shared" si="3"/>
+        <v>2.0641025641025641E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
       <c r="B10" s="52">
         <f>[1]强化消耗石头!B15</f>
         <v>8</v>
@@ -9373,18 +10271,42 @@
       <c r="K10" s="1">
         <v>7</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>944.99999999999989</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <f>ROUNDDOWN(SUM($D$8:D10),0)</f>
         <v>13</v>
       </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T10">
+        <f>'[2]宠物经验(副本关联表)'!$U24</f>
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V10" s="57">
+        <f t="shared" si="3"/>
+        <v>1.8699186991869917E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
       <c r="B11" s="52">
         <f>[1]强化消耗石头!B16</f>
         <v>9</v>
@@ -9424,20 +10346,44 @@
       <c r="K11" s="1">
         <v>8</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="M11" s="50">
         <v>200</v>
       </c>
-      <c r="M11" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="N11" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>1400</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <f>ROUNDDOWN(SUM($D$8:D11),0)</f>
         <v>19</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="S11">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T11">
+        <f>'[2]宠物经验(副本关联表)'!$U25</f>
+        <v>23</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="V11" s="57">
+        <f t="shared" si="3"/>
+        <v>1.3564102564102563E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+    <row r="12" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67"/>
       <c r="B12" s="52">
         <f>[1]强化消耗石头!B17</f>
         <v>10</v>
@@ -9477,16 +10423,37 @@
       <c r="K12" s="1">
         <v>9</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <f ca="1">#REF!*$M$6</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="1"/>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <f ca="1">#REF!*$N$6</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>([5]剧情副本产出分析!$B$31+[5]剧情副本产出分析!$F$31)/2</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="T12">
+        <f>'[2]宠物经验(副本关联表)'!$U26</f>
+        <v>30</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="V12" s="57"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
-        <v>45</v>
+    <row r="13" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="68" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="52">
         <f>[1]强化消耗石头!B18</f>
@@ -9526,18 +10493,42 @@
       <c r="K13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>700</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <f>ROUNDDOWN(SUM($D$8:D13),0)</f>
         <v>24</v>
       </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S13">
+        <f>([5]剧情副本产出分析!$F$31+[5]剧情副本产出分析!$G$31)/2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T13">
+        <f>'[2]宠物经验(副本关联表)'!$U27</f>
+        <v>34</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>4.59</v>
+      </c>
+      <c r="V13" s="57">
+        <f t="shared" si="3"/>
+        <v>2.1857142857142856E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="69"/>
       <c r="B14" s="52">
         <f>[1]强化消耗石头!B19</f>
         <v>12</v>
@@ -9576,18 +10567,42 @@
       <c r="K14" s="1">
         <v>11</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>770</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <f>ROUNDDOWN(SUM($D$8:D14),0)</f>
         <v>34</v>
       </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="S14">
+        <f>([5]剧情副本产出分析!$F$31+[5]剧情副本产出分析!$G$31)/2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T14">
+        <f>'[2]宠物经验(副本关联表)'!$U28</f>
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>4.59</v>
+      </c>
+      <c r="V14" s="57">
+        <f t="shared" si="3"/>
+        <v>1.9124999999999999E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
+    <row r="15" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="69"/>
       <c r="B15" s="52">
         <f>[1]强化消耗石头!B20</f>
         <v>13</v>
@@ -9626,18 +10641,42 @@
       <c r="K15" s="1">
         <v>12</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>1680</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <f>ROUNDDOWN(SUM($D$8:D15),0)</f>
         <v>44</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="S15">
+        <f>([5]剧情副本产出分析!$F$31+[5]剧情副本产出分析!$G$31)/2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T15">
+        <f>'[2]宠物经验(副本关联表)'!$U29</f>
+        <v>40</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="V15" s="57">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000002E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+    <row r="16" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="69"/>
       <c r="B16" s="52">
         <f>[1]强化消耗石头!B21</f>
         <v>14</v>
@@ -9676,18 +10715,46 @@
       <c r="K16" s="1">
         <v>13</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>4350</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>2730</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <f>ROUNDDOWN(SUM($D$8:D16),0)</f>
         <v>59</v>
       </c>
+      <c r="P16">
+        <f>ROUNDDOWN(O16/5,0)</f>
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <f>P16*5</f>
+        <v>55</v>
+      </c>
+      <c r="S16">
+        <f>([5]剧情副本产出分析!$F$31+[5]剧情副本产出分析!$G$31)/2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T16">
+        <f>'[2]宠物经验(副本关联表)'!$U30</f>
+        <v>42</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>5.67</v>
+      </c>
+      <c r="V16" s="57">
+        <f t="shared" si="3"/>
+        <v>1.3034482758620689E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+    <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="69"/>
       <c r="B17" s="52">
         <f>[1]强化消耗石头!B22</f>
         <v>15</v>
@@ -9726,18 +10793,46 @@
       <c r="K17" s="1">
         <v>14</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>5925</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>3430</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <f>ROUNDDOWN(SUM($D$8:D17),0)</f>
         <v>74</v>
       </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P21" si="4">ROUNDDOWN(O17/5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R27" si="5">P17*5</f>
+        <v>70</v>
+      </c>
+      <c r="S17">
+        <f>([5]剧情副本产出分析!$F$31+[5]剧情副本产出分析!$G$31)/2</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="T17">
+        <f>'[2]宠物经验(副本关联表)'!$U31</f>
+        <v>48</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>6.48</v>
+      </c>
+      <c r="V17" s="57">
+        <f t="shared" si="3"/>
+        <v>1.0936708860759495E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69"/>
       <c r="B18" s="52">
         <f>[1]强化消耗石头!B23</f>
         <v>16</v>
@@ -9776,18 +10871,46 @@
       <c r="K18" s="1">
         <v>15</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>7950</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>4725</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <f>ROUNDDOWN(SUM($D$8:D18),0)</f>
         <v>89</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="S18">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T18">
+        <f>'[2]宠物经验(副本关联表)'!$U32</f>
+        <v>52</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>52.260000000000005</v>
+      </c>
+      <c r="V18" s="57">
+        <f t="shared" si="3"/>
+        <v>6.5735849056603778E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69"/>
       <c r="B19" s="52">
         <f>[1]强化消耗石头!B24</f>
         <v>17</v>
@@ -9826,18 +10949,46 @@
       <c r="K19" s="1">
         <v>16</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>6160</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <f>ROUNDDOWN(SUM($D$8:D19),0)</f>
         <v>109</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="S19">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T19">
+        <f>'[2]宠物经验(副本关联表)'!$U33</f>
+        <v>58</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>58.290000000000006</v>
+      </c>
+      <c r="V19" s="57">
+        <f t="shared" si="3"/>
+        <v>5.1813333333333338E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+    <row r="20" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="69"/>
       <c r="B20" s="52">
         <f>[1]强化消耗石头!B25</f>
         <v>18</v>
@@ -9876,18 +11027,46 @@
       <c r="K20" s="1">
         <v>17</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>15150</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>7734.9999999999991</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <f>ROUNDDOWN(SUM($D$8:D20),0)</f>
         <v>129</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="S20">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T20">
+        <f>'[2]宠物经验(副本关联表)'!$U34</f>
+        <v>65</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>65.325000000000003</v>
+      </c>
+      <c r="V20" s="57">
+        <f t="shared" si="3"/>
+        <v>4.3118811881188122E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69"/>
       <c r="B21" s="52">
         <f>[1]强化消耗石头!B26</f>
         <v>19</v>
@@ -9926,20 +11105,48 @@
       <c r="K21" s="1">
         <v>18</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>20400</v>
+      </c>
+      <c r="M21" s="50">
         <v>1250</v>
       </c>
-      <c r="M21" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="N21" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>8820</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <f>ROUNDDOWN(SUM($D$8:D21),0)</f>
         <v>154</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="S21">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T21">
+        <f>'[2]宠物经验(副本关联表)'!$U35</f>
+        <v>72</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>72.360000000000014</v>
+      </c>
+      <c r="V21" s="57">
+        <f t="shared" si="3"/>
+        <v>3.5470588235294123E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
       <c r="B22" s="52">
         <f>[1]强化消耗石头!B27</f>
         <v>20</v>
@@ -9979,16 +11186,37 @@
       <c r="K22" s="1">
         <v>19</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>8820</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T22">
+        <f>'[2]宠物经验(副本关联表)'!$U36</f>
+        <v>79</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>79.39500000000001</v>
+      </c>
+      <c r="V22" s="57"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66" t="s">
-        <v>46</v>
+    <row r="23" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="52">
         <f>[1]强化消耗石头!B28</f>
@@ -10028,18 +11256,46 @@
       <c r="K23" s="1">
         <v>20</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>2100</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <f>ROUNDDOWN(SUM($D$8:D23),0)</f>
         <v>174</v>
       </c>
+      <c r="P23">
+        <f>ROUNDDOWN(O23/5,0)</f>
+        <v>34</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="S23">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T23">
+        <f>'[2]宠物经验(副本关联表)'!$U37</f>
+        <v>88</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>88.440000000000012</v>
+      </c>
+      <c r="V23" s="57">
+        <f t="shared" si="3"/>
+        <v>4.2114285714285717E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
+    <row r="24" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="72"/>
       <c r="B24" s="52">
         <f>[1]强化消耗石头!B29</f>
         <v>22</v>
@@ -10078,18 +11334,46 @@
       <c r="K24" s="1">
         <v>21</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>4480</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <f>ROUNDDOWN(SUM($D$8:D24),0)</f>
         <v>199</v>
       </c>
+      <c r="P24">
+        <f>ROUNDDOWN(O24/5,0)</f>
+        <v>39</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="S24">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T24">
+        <f>'[2]宠物经验(副本关联表)'!$U38</f>
+        <v>96</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>96.480000000000018</v>
+      </c>
+      <c r="V24" s="57">
+        <f t="shared" si="3"/>
+        <v>4.288000000000001E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+    <row r="25" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="72"/>
       <c r="B25" s="52">
         <f>[1]强化消耗石头!B30</f>
         <v>23</v>
@@ -10128,18 +11412,46 @@
       <c r="K25" s="1">
         <v>22</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>24750</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>7140</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <f>ROUNDDOWN(SUM($D$8:D25),0)</f>
         <v>224</v>
       </c>
+      <c r="P25">
+        <f>ROUNDDOWN(O25/5,0)</f>
+        <v>44</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="S25">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T25">
+        <f>'[2]宠物经验(副本关联表)'!$U39</f>
+        <v>107</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>107.53500000000001</v>
+      </c>
+      <c r="V25" s="57">
+        <f t="shared" si="3"/>
+        <v>4.3448484848484853E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
+    <row r="26" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="72"/>
       <c r="B26" s="52">
         <f>[1]强化消耗石头!B31</f>
         <v>24</v>
@@ -10178,18 +11490,46 @@
       <c r="K26" s="1">
         <v>23</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>27900</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>8820</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <f>ROUNDDOWN(SUM($D$8:D26),0)</f>
         <v>254</v>
       </c>
+      <c r="P26">
+        <f>ROUNDDOWN(O26/5,0)</f>
+        <v>50</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="S26">
+        <f>([5]剧情副本产出分析!$J$31+[5]剧情副本产出分析!$K$31)/2</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="T26">
+        <f>'[2]宠物经验(副本关联表)'!$U40</f>
+        <v>120</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>120.60000000000001</v>
+      </c>
+      <c r="V26" s="57">
+        <f t="shared" si="3"/>
+        <v>4.3225806451612911E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
+    <row r="27" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="72"/>
       <c r="B27" s="52">
         <f>[1]强化消耗石头!B32</f>
         <v>25</v>
@@ -10228,18 +11568,46 @@
       <c r="K27" s="1">
         <v>24</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>31950</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>11970</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <f>ROUNDDOWN(SUM($D$8:D27),0)</f>
         <v>284</v>
       </c>
+      <c r="P27">
+        <f>ROUNDDOWN(O27/5,0)</f>
+        <v>56</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="S27">
+        <f>([5]剧情副本产出分析!$N$31+[5]剧情副本产出分析!$O$31)/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T27">
+        <f>'[2]宠物经验(副本关联表)'!$U41</f>
+        <v>140</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="V27" s="57">
+        <f t="shared" si="3"/>
+        <v>9.6400625978090761E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+    <row r="28" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="72"/>
       <c r="B28" s="52">
         <f>[1]强化消耗石头!B33</f>
         <v>26</v>
@@ -10278,18 +11646,46 @@
       <c r="K28" s="1">
         <v>25</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L28" s="1">
+        <f t="shared" si="0"/>
+        <v>37725</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>15399.999999999998</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <f>ROUNDDOWN(SUM($D$8:D28),0)</f>
         <v>319</v>
       </c>
+      <c r="Q28">
+        <f>ROUNDDOWN(O28/25,0)</f>
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <f>Q28*25</f>
+        <v>300</v>
+      </c>
+      <c r="S28">
+        <f>([5]剧情副本产出分析!$N$31+[5]剧情副本产出分析!$O$31)/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T28">
+        <f>'[2]宠物经验(副本关联表)'!$U42</f>
+        <v>158</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>347.6</v>
+      </c>
+      <c r="V28" s="57">
+        <f t="shared" si="3"/>
+        <v>9.2140490390987418E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+    <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="72"/>
       <c r="B29" s="52">
         <f>[1]强化消耗石头!B34</f>
         <v>27</v>
@@ -10328,18 +11724,46 @@
       <c r="K29" s="1">
         <v>26</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>47475</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>19110</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <f>ROUNDDOWN(SUM($D$8:D29),0)</f>
         <v>369</v>
       </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Q52" si="6">ROUNDDOWN(O29/25,0)</f>
+        <v>14</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:R52" si="7">Q29*25</f>
+        <v>350</v>
+      </c>
+      <c r="S29">
+        <f>([5]剧情副本产出分析!$N$31+[5]剧情副本产出分析!$O$31)/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T29">
+        <f>'[2]宠物经验(副本关联表)'!$U43</f>
+        <v>188</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>413.6</v>
+      </c>
+      <c r="V29" s="57">
+        <f t="shared" si="3"/>
+        <v>8.7119536598209597E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+    <row r="30" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="72"/>
       <c r="B30" s="52">
         <f>[1]强化消耗石头!B35</f>
         <v>28</v>
@@ -10378,18 +11802,46 @@
       <c r="K30" s="1">
         <v>27</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>63225</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>21560</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <f>ROUNDDOWN(SUM($D$8:D30),0)</f>
         <v>444</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="S30">
+        <f>([5]剧情副本产出分析!$N$31+[5]剧情副本产出分析!$O$31)/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T30">
+        <f>'[2]宠物经验(副本关联表)'!$U44</f>
+        <v>222</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>488.40000000000003</v>
+      </c>
+      <c r="V30" s="57">
+        <f t="shared" si="3"/>
+        <v>7.7247924080664299E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+    <row r="31" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72"/>
       <c r="B31" s="52">
         <f>[1]强化消耗石头!B36</f>
         <v>29</v>
@@ -10429,19 +11881,47 @@
         <v>28</v>
       </c>
       <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>81225</v>
+      </c>
+      <c r="M31" s="1">
         <v>3500</v>
       </c>
-      <c r="M31" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="N31" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>25760</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <f>ROUNDDOWN(SUM($D$8:D31),0)</f>
         <v>519</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="S31">
+        <f>([5]剧情副本产出分析!$N$31+[5]剧情副本产出分析!$O$31)/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T31">
+        <f>'[2]宠物经验(副本关联表)'!$U45</f>
+        <v>270</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="V31" s="57">
+        <f t="shared" si="3"/>
+        <v>7.3130193905817176E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+    <row r="32" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
       <c r="B32" s="52">
         <f>[1]强化消耗石头!B37</f>
         <v>30</v>
@@ -10481,15 +11961,32 @@
       <c r="K32" s="1">
         <v>29</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>25760</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="S32">
+        <f>([5]剧情副本产出分析!$N$31+[5]剧情副本产出分析!$O$31)/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T32">
+        <f>'[2]宠物经验(副本关联表)'!$U46</f>
+        <v>323</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>710.6</v>
+      </c>
+      <c r="V32" s="57"/>
     </row>
-    <row r="33" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+    <row r="33" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
       <c r="B33" s="52">
         <f>[1]强化消耗石头!B38</f>
         <v>31</v>
@@ -10529,12 +12026,29 @@
       <c r="K33" s="1">
         <v>30</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="S33">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T33">
+        <f>'[2]宠物经验(副本关联表)'!$U47</f>
+        <v>420</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>1701</v>
+      </c>
+      <c r="V33" s="57"/>
     </row>
-    <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
+    <row r="34" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
       <c r="B34" s="52">
         <f>[1]强化消耗石头!B39</f>
         <v>32</v>
@@ -10574,13 +12088,30 @@
       <c r="K34" s="1">
         <v>31</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="S34">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T34">
+        <f>'[2]宠物经验(副本关联表)'!$U48</f>
+        <v>499</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>2020.9499999999998</v>
+      </c>
+      <c r="V34" s="57"/>
     </row>
-    <row r="35" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68" t="s">
-        <v>47</v>
+    <row r="35" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="73" t="s">
+        <v>45</v>
       </c>
       <c r="B35" s="52">
         <f>[1]强化消耗石头!B40</f>
@@ -10620,18 +12151,46 @@
       <c r="K35" s="1">
         <v>32</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>87225</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>8400</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <f>ROUNDDOWN(SUM($D$8:D35),0)</f>
         <v>619</v>
       </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="S35">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T35">
+        <f>'[2]宠物经验(副本关联表)'!$U49</f>
+        <v>620</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>2511</v>
+      </c>
+      <c r="V35" s="57">
+        <f t="shared" si="3"/>
+        <v>2.878761822871883E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="74"/>
       <c r="B36" s="52">
         <f>[1]强化消耗石头!B41</f>
         <v>34</v>
@@ -10670,18 +12229,46 @@
       <c r="K36" s="1">
         <v>33</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>96225</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>13230</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <f>ROUNDDOWN(SUM($D$8:D36),0)</f>
         <v>719</v>
       </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="S36">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T36">
+        <f>'[2]宠物经验(副本关联表)'!$U50</f>
+        <v>700</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>2835</v>
+      </c>
+      <c r="V36" s="57">
+        <f t="shared" si="3"/>
+        <v>2.946219797349961E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="69"/>
+    <row r="37" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="74"/>
       <c r="B37" s="52">
         <f>[1]强化消耗石头!B42</f>
         <v>35</v>
@@ -10720,18 +12307,46 @@
       <c r="K37" s="1">
         <v>34</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>111975</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>16169.999999999998</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <f>ROUNDDOWN(SUM($D$8:D37),0)</f>
         <v>869</v>
       </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>850</v>
+      </c>
+      <c r="S37">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T37">
+        <f>'[2]宠物经验(副本关联表)'!$U51</f>
+        <v>870</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>3523.5</v>
+      </c>
+      <c r="V37" s="57">
+        <f t="shared" si="3"/>
+        <v>3.1466845277963833E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
+    <row r="38" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="74"/>
       <c r="B38" s="52">
         <f>[1]强化消耗石头!B43</f>
         <v>36</v>
@@ -10770,18 +12385,46 @@
       <c r="K38" s="1">
         <v>35</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>132225</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>21735</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <f>ROUNDDOWN(SUM($D$8:D38),0)</f>
         <v>1019</v>
       </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="S38">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T38">
+        <f>'[2]宠物经验(副本关联表)'!$U52</f>
+        <v>1001</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>4054.0499999999997</v>
+      </c>
+      <c r="V38" s="57">
+        <f t="shared" si="3"/>
+        <v>3.0660238230289277E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69"/>
+    <row r="39" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="74"/>
       <c r="B39" s="52">
         <f>[1]强化消耗石头!B44</f>
         <v>37</v>
@@ -10820,18 +12463,46 @@
       <c r="K39" s="1">
         <v>36</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>161100</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>27720</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <f>ROUNDDOWN(SUM($D$8:D39),0)</f>
         <v>1194</v>
       </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>1175</v>
+      </c>
+      <c r="S39">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T39">
+        <f>'[2]宠物经验(副本关联表)'!$U53</f>
+        <v>1220</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>4941</v>
+      </c>
+      <c r="V39" s="57">
+        <f t="shared" si="3"/>
+        <v>3.0670391061452515E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="74"/>
       <c r="B40" s="52">
         <f>[1]强化消耗石头!B45</f>
         <v>38</v>
@@ -10870,18 +12541,46 @@
       <c r="K40" s="1">
         <v>37</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>195225</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>34125</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <f>ROUNDDOWN(SUM($D$8:D40),0)</f>
         <v>1369</v>
       </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>1350</v>
+      </c>
+      <c r="S40">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T40">
+        <f>'[2]宠物经验(副本关联表)'!$U54</f>
+        <v>1377</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>5576.8499999999995</v>
+      </c>
+      <c r="V40" s="57">
+        <f t="shared" si="3"/>
+        <v>2.8566269688820589E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
+    <row r="41" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="74"/>
       <c r="B41" s="52">
         <f>[1]强化消耗石头!B46</f>
         <v>39</v>
@@ -10920,18 +12619,46 @@
       <c r="K41" s="1">
         <v>38</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L41" s="1">
+        <f t="shared" si="0"/>
+        <v>237225</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>38220</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <f>ROUNDDOWN(SUM($D$8:D41),0)</f>
         <v>1569</v>
       </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>1550</v>
+      </c>
+      <c r="S41">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T41">
+        <f>'[2]宠物经验(副本关联表)'!$U55</f>
+        <v>1645</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>6662.25</v>
+      </c>
+      <c r="V41" s="57">
+        <f t="shared" si="3"/>
+        <v>2.8084097375908949E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
+    <row r="42" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="74"/>
       <c r="B42" s="52">
         <f>[1]强化消耗石头!B47</f>
         <v>40</v>
@@ -10970,18 +12697,46 @@
       <c r="K42" s="1">
         <v>39</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>291225</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>45360</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <f>ROUNDDOWN(SUM($D$8:D42),0)</f>
         <v>1794</v>
       </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="7"/>
+        <v>1775</v>
+      </c>
+      <c r="S42">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T42">
+        <f>'[2]宠物经验(副本关联表)'!$U56</f>
+        <v>1828</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>7403.4</v>
+      </c>
+      <c r="V42" s="57">
+        <f t="shared" si="3"/>
+        <v>2.5421581251609579E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
+    <row r="43" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
       <c r="B43" s="52">
         <f>[1]强化消耗石头!B48</f>
         <v>41</v>
@@ -11021,20 +12776,48 @@
         <v>40</v>
       </c>
       <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>351975</v>
+      </c>
+      <c r="M43" s="1">
         <v>7500</v>
       </c>
-      <c r="M43" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="N43" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>52920</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <f>ROUNDDOWN(SUM($D$8:D43),0)</f>
         <v>2019</v>
       </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="S43">
+        <f>([5]剧情副本产出分析!$R$31+[5]剧情副本产出分析!$S$31)/2</f>
+        <v>4.05</v>
+      </c>
+      <c r="T43">
+        <f>'[2]宠物经验(副本关联表)'!$U57</f>
+        <v>2146</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>8691.2999999999993</v>
+      </c>
+      <c r="V43" s="57">
+        <f t="shared" si="3"/>
+        <v>2.4692946942254421E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70" t="s">
-        <v>48</v>
+    <row r="44" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="75" t="s">
+        <v>46</v>
       </c>
       <c r="B44" s="52">
         <f>[1]强化消耗石头!B49</f>
@@ -11074,18 +12857,46 @@
       <c r="K44" s="1">
         <v>41</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L44" s="1">
+        <f t="shared" si="0"/>
+        <v>362475</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>36750</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <f>ROUNDDOWN(SUM($D$8:D44),0)</f>
         <v>2119</v>
       </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>2100</v>
+      </c>
+      <c r="S44">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T44">
+        <f>'[2]宠物经验(副本关联表)'!$U58</f>
+        <v>2378</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>23185.5</v>
+      </c>
+      <c r="V44" s="57">
+        <f t="shared" si="3"/>
+        <v>6.3964411338713015E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="71"/>
+    <row r="45" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="76"/>
       <c r="B45" s="52">
         <f>[1]强化消耗石头!B50</f>
         <v>43</v>
@@ -11124,18 +12935,46 @@
       <c r="K45" s="1">
         <v>42</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L45" s="1">
+        <f t="shared" si="0"/>
+        <v>379350</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>50400</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <f>ROUNDDOWN(SUM($D$8:D45),0)</f>
         <v>2244</v>
       </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="7"/>
+        <v>2225</v>
+      </c>
+      <c r="S45">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T45">
+        <f>'[2]宠物经验(副本关联表)'!$U59</f>
+        <v>2747</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>26783.25</v>
+      </c>
+      <c r="V45" s="57">
+        <f t="shared" si="3"/>
+        <v>7.0603005140371683E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="76"/>
       <c r="B46" s="52">
         <f>[1]强化消耗石头!B51</f>
         <v>44</v>
@@ -11174,18 +13013,46 @@
       <c r="K46" s="1">
         <v>43</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>404100</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>65449.999999999993</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <f>ROUNDDOWN(SUM($D$8:D46),0)</f>
         <v>2394</v>
       </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="7"/>
+        <v>2375</v>
+      </c>
+      <c r="S46">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T46">
+        <f>'[2]宠物经验(副本关联表)'!$U60</f>
+        <v>3078</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>30010.5</v>
+      </c>
+      <c r="V46" s="57">
+        <f t="shared" si="3"/>
+        <v>7.4265033407572387E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
+    <row r="47" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="76"/>
       <c r="B47" s="52">
         <f>[1]强化消耗石头!B52</f>
         <v>45</v>
@@ -11224,18 +13091,46 @@
       <c r="K47" s="1">
         <v>44</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>438225</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>81900</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <f>ROUNDDOWN(SUM($D$8:D47),0)</f>
         <v>2569</v>
       </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="7"/>
+        <v>2550</v>
+      </c>
+      <c r="S47">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T47">
+        <f>'[2]宠物经验(副本关联表)'!$U61</f>
+        <v>3648</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>35568</v>
+      </c>
+      <c r="V47" s="57">
+        <f t="shared" si="3"/>
+        <v>8.1163785726510354E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="71"/>
+    <row r="48" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="76"/>
       <c r="B48" s="52">
         <f>[1]强化消耗石头!B53</f>
         <v>46</v>
@@ -11274,18 +13169,46 @@
       <c r="K48" s="1">
         <v>45</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L48" s="1">
+        <f t="shared" si="0"/>
+        <v>480225</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>93100</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <f>ROUNDDOWN(SUM($D$8:D48),0)</f>
         <v>2769</v>
       </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>2750</v>
+      </c>
+      <c r="S48">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T48">
+        <f>'[2]宠物经验(副本关联表)'!$U62</f>
+        <v>4178</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>40735.5</v>
+      </c>
+      <c r="V48" s="57">
+        <f t="shared" si="3"/>
+        <v>8.4825862876776514E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71"/>
+    <row r="49" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="76"/>
       <c r="B49" s="52">
         <f>[1]强化消耗石头!B54</f>
         <v>47</v>
@@ -11324,18 +13247,46 @@
       <c r="K49" s="1">
         <v>46</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L49" s="1">
+        <f t="shared" si="0"/>
+        <v>534225</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>112000</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <f>ROUNDDOWN(SUM($D$8:D49),0)</f>
         <v>2994</v>
       </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>2975</v>
+      </c>
+      <c r="S49">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T49">
+        <f>'[2]宠物经验(副本关联表)'!$U63</f>
+        <v>4948</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>48243</v>
+      </c>
+      <c r="V49" s="57">
+        <f t="shared" si="3"/>
+        <v>9.0304646918433248E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="71"/>
+    <row r="50" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="76"/>
       <c r="B50" s="52">
         <f>[1]强化消耗石头!B55</f>
         <v>48</v>
@@ -11374,18 +13325,46 @@
       <c r="K50" s="1">
         <v>47</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>601725</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>132300</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <f>ROUNDDOWN(SUM($D$8:D50),0)</f>
         <v>3244</v>
       </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="7"/>
+        <v>3225</v>
+      </c>
+      <c r="S50">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T50">
+        <f>'[2]宠物经验(副本关联表)'!$U64</f>
+        <v>5679</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>55370.25</v>
+      </c>
+      <c r="V50" s="57">
+        <f t="shared" si="3"/>
+        <v>9.201919481490714E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71"/>
+    <row r="51" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="76"/>
       <c r="B51" s="52">
         <f>[1]强化消耗石头!B56</f>
         <v>49</v>
@@ -11424,18 +13403,46 @@
       <c r="K51" s="1">
         <v>48</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>680100</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>146300</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <f>ROUNDDOWN(SUM($D$8:D51),0)</f>
         <v>3519</v>
       </c>
+      <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="7"/>
+        <v>3500</v>
+      </c>
+      <c r="S51">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T51">
+        <f>'[2]宠物经验(副本关联表)'!$U65</f>
+        <v>6648</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>64818</v>
+      </c>
+      <c r="V51" s="57">
+        <f t="shared" si="3"/>
+        <v>9.5306572562858405E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="72"/>
+    <row r="52" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="77"/>
       <c r="B52" s="52">
         <f>[1]强化消耗石头!B57</f>
         <v>50</v>
@@ -11475,15 +13482,43 @@
         <v>49</v>
       </c>
       <c r="L52" s="1">
+        <f t="shared" si="0"/>
+        <v>774600</v>
+      </c>
+      <c r="M52" s="1">
         <v>25000</v>
       </c>
-      <c r="M52" s="1">
-        <f ca="1">#REF!*$M$6</f>
+      <c r="N52" s="1">
+        <f ca="1">#REF!*$N$6</f>
         <v>169050</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <f>ROUNDDOWN(SUM($D$8:D52),0)</f>
         <v>3819</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>3800</v>
+      </c>
+      <c r="S52">
+        <f>([5]剧情副本产出分析!$V$31+[5]剧情副本产出分析!$W$31)/2</f>
+        <v>9.75</v>
+      </c>
+      <c r="T52">
+        <f>'[2]宠物经验(副本关联表)'!$U66</f>
+        <v>7580</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>73905</v>
+      </c>
+      <c r="V52" s="57">
+        <f t="shared" si="3"/>
+        <v>9.5410534469403563E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11494,20 +13529,404 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A44:A52"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <f>([5]困难本!$B$21+[5]困难本!$C$21)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f>'[2]宠物经验(副本关联表)'!$V$23</f>
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <f>(C7+D7)*E7</f>
+        <v>22.5</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f>G7*5</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <f>([5]困难本!$F$21+[5]困难本!$G$21)/2</f>
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <f>'[2]宠物经验(副本关联表)'!$V$32</f>
+        <v>323</v>
+      </c>
+      <c r="F8">
+        <f>(C8+D8)*E8</f>
+        <v>226.1</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H12" si="0">G8*5</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <f>([5]困难本!$J$21+[5]困难本!$K$21)/2</f>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="D9">
+        <f>[6]大冒险!$N$18</f>
+        <v>1.26</v>
+      </c>
+      <c r="E9">
+        <f>'[2]宠物经验(副本关联表)'!$V$40</f>
+        <v>685</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="1">(C9+D9)*E9</f>
+        <v>1366.575</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <f>([5]困难本!$N$21+[5]困难本!$O$21)/2</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D10">
+        <f>[6]大冒险!$N$21</f>
+        <v>1.47</v>
+      </c>
+      <c r="E10">
+        <f>'[2]宠物经验(副本关联表)'!$V$47</f>
+        <v>1721</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3949.6949999999997</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <f>([5]困难本!$R$21+[5]困难本!$S$21)/2</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="D11">
+        <f>[6]大冒险!$N$24</f>
+        <v>1.68</v>
+      </c>
+      <c r="E11">
+        <f>'[2]宠物经验(副本关联表)'!$V$57</f>
+        <v>11906</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>31729.49</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <f>([5]困难本!$V$21+[5]困难本!$W$21)/2</f>
+        <v>1.345</v>
+      </c>
+      <c r="D12">
+        <f>[6]大冒险!$N$27</f>
+        <v>2.1</v>
+      </c>
+      <c r="E12">
+        <f>'[2]宠物经验(副本关联表)'!$V$66</f>
+        <v>40884</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>140845.38</v>
+      </c>
+      <c r="G12">
+        <v>1500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <f>([5]剧情副本产出分析!$D$32+[5]困难本!$E$32)/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <f>'[2]宠物经验(副本关联表)'!$V$23</f>
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <f>(C17+D17)*E17</f>
+        <v>1.125</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f>G17*30</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <f>([5]剧情副本产出分析!$H$32+[5]困难本!$I$32)/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <f>'[2]宠物经验(副本关联表)'!$V$32</f>
+        <v>323</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F22" si="2">(C18+D18)*E18</f>
+        <v>9.69</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H22" si="3">G18*30</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <f>([5]剧情副本产出分析!$L$32+[5]困难本!$M$32)/2</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D19">
+        <f>[5]大冒险!$M$18</f>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="E19">
+        <f>'[2]宠物经验(副本关联表)'!$V$40</f>
+        <v>685</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1544.675</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <f>([5]剧情副本产出分析!$P$32+[5]困难本!$O$32)/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <f>[5]大冒险!$M$21</f>
+        <v>2.59</v>
+      </c>
+      <c r="E20">
+        <f>'[2]宠物经验(副本关联表)'!$V$47</f>
+        <v>1721</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>4534.835</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <f>([5]剧情副本产出分析!$T$32+[5]困难本!$U$32)/2</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="D21">
+        <f>[5]大冒险!$M$24</f>
+        <v>2.96</v>
+      </c>
+      <c r="E21">
+        <f>'[2]宠物经验(副本关联表)'!$V$57</f>
+        <v>11906</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>37325.31</v>
+      </c>
+      <c r="G21">
+        <v>300</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <f>([5]剧情副本产出分析!$X$32+[5]困难本!$Y$32)/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <f>[5]大冒险!$M$27</f>
+        <v>3.7</v>
+      </c>
+      <c r="E22">
+        <f>'[2]宠物经验(副本关联表)'!$V$66</f>
+        <v>40884</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>159447.6</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>